--- a/InputData/io-model/BPEaCP/BAU Pop Employment and Compensation Projections.xlsx
+++ b/InputData/io-model/BPEaCP/BAU Pop Employment and Compensation Projections.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarrynna\Dropbox (CEA)\Energy Innovation IO\Deliverable IO files\Canada\BPEaCP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\Canada\canada-eps\InputData\io-model\BPEaCP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D570116D-C4B8-439A-A27C-71178F80B99E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C502C0-B5E7-4DB5-BC88-C63B138CF98D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33840" yWindow="2175" windowWidth="21600" windowHeight="11385" firstSheet="7" activeTab="10" xr2:uid="{9CFCDA60-17E9-4D3E-A3D3-81B3C018F06B}"/>
+    <workbookView xWindow="270" yWindow="0" windowWidth="13890" windowHeight="17175" firstSheet="8" activeTab="8" xr2:uid="{9CFCDA60-17E9-4D3E-A3D3-81B3C018F06B}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,10 @@
     <sheet name="OECD VAL" sheetId="10" r:id="rId6"/>
     <sheet name="BGDP_calc" sheetId="16" r:id="rId7"/>
     <sheet name="EE Comp Projection" sheetId="17" r:id="rId8"/>
-    <sheet name="BPEaCP-population" sheetId="6" r:id="rId9"/>
-    <sheet name="BPEaCP-employedpop" sheetId="8" r:id="rId10"/>
-    <sheet name="BPEaCP-employeecomp" sheetId="14" r:id="rId11"/>
+    <sheet name="EPS" sheetId="18" r:id="rId9"/>
+    <sheet name="BPEaCP-population" sheetId="6" r:id="rId10"/>
+    <sheet name="BPEaCP-employedpop" sheetId="8" r:id="rId11"/>
+    <sheet name="BPEaCP-employeecomp" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="234">
   <si>
     <t>Sources:</t>
   </si>
@@ -638,6 +639,135 @@
   </si>
   <si>
     <t>https://fred.stlouisfed.org/series/SLEMPTOTLSPZSCAN#0</t>
+  </si>
+  <si>
+    <t>Time (Time)</t>
+  </si>
+  <si>
+    <t>BAU Employee Compensation by ISIC Code by Year[ISIC 01T03] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Employee Compensation by ISIC Code by Year[ISIC 05] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Employee Compensation by ISIC Code by Year[ISIC 06] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Employee Compensation by ISIC Code by Year[ISIC 07T08] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Employee Compensation by ISIC Code by Year[ISIC 09] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Employee Compensation by ISIC Code by Year[ISIC 10T12] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Employee Compensation by ISIC Code by Year[ISIC 13T15] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Employee Compensation by ISIC Code by Year[ISIC 16] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Employee Compensation by ISIC Code by Year[ISIC 17T18] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Employee Compensation by ISIC Code by Year[ISIC 19] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Employee Compensation by ISIC Code by Year[ISIC 20] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Employee Compensation by ISIC Code by Year[ISIC 21] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Employee Compensation by ISIC Code by Year[ISIC 22] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Employee Compensation by ISIC Code by Year[ISIC 231] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Employee Compensation by ISIC Code by Year[ISIC 239] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Employee Compensation by ISIC Code by Year[ISIC 241] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Employee Compensation by ISIC Code by Year[ISIC 242] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Employee Compensation by ISIC Code by Year[ISIC 25] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Employee Compensation by ISIC Code by Year[ISIC 26] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Employee Compensation by ISIC Code by Year[ISIC 27] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Employee Compensation by ISIC Code by Year[ISIC 28] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Employee Compensation by ISIC Code by Year[ISIC 29] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Employee Compensation by ISIC Code by Year[ISIC 30] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Employee Compensation by ISIC Code by Year[ISIC 31T33] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Employee Compensation by ISIC Code by Year[ISIC 351] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Employee Compensation by ISIC Code by Year[ISIC 352T353] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Employee Compensation by ISIC Code by Year[ISIC 36T39] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Employee Compensation by ISIC Code by Year[ISIC 41T43] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Employee Compensation by ISIC Code by Year[ISIC 45T47] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Employee Compensation by ISIC Code by Year[ISIC 49T53] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Employee Compensation by ISIC Code by Year[ISIC 55T56] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Employee Compensation by ISIC Code by Year[ISIC 58T60] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Employee Compensation by ISIC Code by Year[ISIC 61] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Employee Compensation by ISIC Code by Year[ISIC 62T63] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Employee Compensation by ISIC Code by Year[ISIC 64T66] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Employee Compensation by ISIC Code by Year[ISIC 68] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Employee Compensation by ISIC Code by Year[ISIC 69T82] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Employee Compensation by ISIC Code by Year[ISIC 84] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Employee Compensation by ISIC Code by Year[ISIC 85] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Employee Compensation by ISIC Code by Year[ISIC 86T88] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Employee Compensation by ISIC Code by Year[ISIC 90T96] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>BAU Employee Compensation by ISIC Code by Year[ISIC 97T98] : MostRecentRun</t>
   </si>
 </sst>
 </file>
@@ -1331,7 +1461,7 @@
     <xf numFmtId="0" fontId="1" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1372,7 +1502,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -4071,7 +4200,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="28"/>
+      <c r="B33" s="27"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
@@ -4227,14 +4356,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8E93FD9-0E1F-491A-A9F5-EE1CCFCBCFA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D02B7A6-B7E4-4B42-ADE9-1C2AC0869798}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection sqref="A1:AG2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4247,7 +4376,8 @@
       <c r="A1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B1">
+      <c r="B1" cm="1">
+        <f t="array" ref="B1:AG1">TRANSPOSE('Pop Projection'!A7:A38)</f>
         <v>2019</v>
       </c>
       <c r="C1">
@@ -4346,135 +4476,104 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2">
-        <f>'BPEaCP-population'!B2*'Avg Emp-Pop Ratio'!$B$5</f>
-        <v>23064019.446787994</v>
+        <v>16</v>
+      </c>
+      <c r="B2" cm="1">
+        <f t="array" ref="B2:AG2">TRANSPOSE('Pop Projection'!B7:B38)</f>
+        <v>37589262</v>
       </c>
       <c r="C2">
-        <f>'BPEaCP-population'!C2*'Avg Emp-Pop Ratio'!$B$5</f>
-        <v>23262045.029418945</v>
+        <v>37912000</v>
       </c>
       <c r="D2">
-        <f>'BPEaCP-population'!D2*'Avg Emp-Pop Ratio'!$B$5</f>
-        <v>23457777.050003052</v>
+        <v>38231000</v>
       </c>
       <c r="E2">
-        <f>'BPEaCP-population'!E2*'Avg Emp-Pop Ratio'!$B$5</f>
-        <v>23651054.750579834</v>
+        <v>38546000</v>
       </c>
       <c r="F2">
-        <f>'BPEaCP-population'!F2*'Avg Emp-Pop Ratio'!$B$5</f>
-        <v>23842491.711151123</v>
+        <v>38858000</v>
       </c>
       <c r="G2">
-        <f>'BPEaCP-population'!G2*'Avg Emp-Pop Ratio'!$B$5</f>
-        <v>24031474.351715088</v>
+        <v>39166000</v>
       </c>
       <c r="H2">
-        <f>'BPEaCP-population'!H2*'Avg Emp-Pop Ratio'!$B$5</f>
-        <v>24218616.25227356</v>
+        <v>39471000</v>
       </c>
       <c r="I2">
-        <f>'BPEaCP-population'!I2*'Avg Emp-Pop Ratio'!$B$5</f>
-        <v>24403303.832824707</v>
+        <v>39772000</v>
       </c>
       <c r="J2">
-        <f>'BPEaCP-population'!J2*'Avg Emp-Pop Ratio'!$B$5</f>
-        <v>24584923.513366699</v>
+        <v>40068000</v>
       </c>
       <c r="K2">
-        <f>'BPEaCP-population'!K2*'Avg Emp-Pop Ratio'!$B$5</f>
-        <v>24762861.713897705</v>
+        <v>40358000</v>
       </c>
       <c r="L2">
-        <f>'BPEaCP-population'!L2*'Avg Emp-Pop Ratio'!$B$5</f>
-        <v>24937732.014419556</v>
+        <v>40643000</v>
       </c>
       <c r="M2">
-        <f>'BPEaCP-population'!M2*'Avg Emp-Pop Ratio'!$B$5</f>
-        <v>25108920.83493042</v>
+        <v>40922000</v>
       </c>
       <c r="N2">
-        <f>'BPEaCP-population'!N2*'Avg Emp-Pop Ratio'!$B$5</f>
-        <v>25277655.33543396</v>
+        <v>41197000</v>
       </c>
       <c r="O2">
-        <f>'BPEaCP-population'!O2*'Avg Emp-Pop Ratio'!$B$5</f>
-        <v>25442094.775924683</v>
+        <v>41465000</v>
       </c>
       <c r="P2">
-        <f>'BPEaCP-population'!P2*'Avg Emp-Pop Ratio'!$B$5</f>
-        <v>25602852.736404419</v>
+        <v>41727000</v>
       </c>
       <c r="Q2">
-        <f>'BPEaCP-population'!Q2*'Avg Emp-Pop Ratio'!$B$5</f>
-        <v>25758702.056869507</v>
+        <v>41981000</v>
       </c>
       <c r="R2">
-        <f>'BPEaCP-population'!R2*'Avg Emp-Pop Ratio'!$B$5</f>
-        <v>25910256.317321777</v>
+        <v>42228000</v>
       </c>
       <c r="S2">
-        <f>'BPEaCP-population'!S2*'Avg Emp-Pop Ratio'!$B$5</f>
-        <v>26056901.937759399</v>
+        <v>42467000</v>
       </c>
       <c r="T2">
-        <f>'BPEaCP-population'!T2*'Avg Emp-Pop Ratio'!$B$5</f>
-        <v>26199252.498184204</v>
+        <v>42699000</v>
       </c>
       <c r="U2">
-        <f>'BPEaCP-population'!U2*'Avg Emp-Pop Ratio'!$B$5</f>
-        <v>26338535.158599854</v>
+        <v>42926000</v>
       </c>
       <c r="V2">
-        <f>'BPEaCP-population'!V2*'Avg Emp-Pop Ratio'!$B$5</f>
-        <v>26473522.759002686</v>
+        <v>43146000</v>
       </c>
       <c r="W2">
-        <f>'BPEaCP-population'!W2*'Avg Emp-Pop Ratio'!$B$5</f>
-        <v>26605442.459396362</v>
+        <v>43361000</v>
       </c>
       <c r="X2">
-        <f>'BPEaCP-population'!X2*'Avg Emp-Pop Ratio'!$B$5</f>
-        <v>26733680.679779053</v>
+        <v>43570000</v>
       </c>
       <c r="Y2">
-        <f>'BPEaCP-population'!Y2*'Avg Emp-Pop Ratio'!$B$5</f>
-        <v>26860078.16015625</v>
+        <v>43776000</v>
       </c>
       <c r="Z2">
-        <f>'BPEaCP-population'!Z2*'Avg Emp-Pop Ratio'!$B$5</f>
-        <v>26983407.740524292</v>
+        <v>43977000</v>
       </c>
       <c r="AA2">
-        <f>'BPEaCP-population'!AA2*'Avg Emp-Pop Ratio'!$B$5</f>
-        <v>27106123.740890503</v>
+        <v>44177000</v>
       </c>
       <c r="AB2">
-        <f>'BPEaCP-population'!AB2*'Avg Emp-Pop Ratio'!$B$5</f>
-        <v>27227612.581253052</v>
+        <v>44375000</v>
       </c>
       <c r="AC2">
-        <f>'BPEaCP-population'!AC2*'Avg Emp-Pop Ratio'!$B$5</f>
-        <v>27349715.001617432</v>
+        <v>44574000</v>
       </c>
       <c r="AD2">
-        <f>'BPEaCP-population'!AD2*'Avg Emp-Pop Ratio'!$B$5</f>
-        <v>27473044.581985474</v>
+        <v>44775000</v>
       </c>
       <c r="AE2">
-        <f>'BPEaCP-population'!AE2*'Avg Emp-Pop Ratio'!$B$5</f>
-        <v>27596987.742355347</v>
+        <v>44977000</v>
       </c>
       <c r="AF2">
-        <f>'BPEaCP-population'!AF2*'Avg Emp-Pop Ratio'!$B$5</f>
-        <v>27722771.642730713</v>
+        <v>45182000</v>
       </c>
       <c r="AG2">
-        <f>'BPEaCP-population'!AG2*'Avg Emp-Pop Ratio'!$B$5</f>
-        <v>27847328.383102417</v>
+        <v>45385000</v>
       </c>
     </row>
   </sheetData>
@@ -4483,14 +4582,268 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8E93FD9-0E1F-491A-A9F5-EE1CCFCBCFA0}">
+  <sheetPr>
+    <tabColor theme="4" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:AG2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="33" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1">
+        <v>2019</v>
+      </c>
+      <c r="C1">
+        <v>2020</v>
+      </c>
+      <c r="D1">
+        <v>2021</v>
+      </c>
+      <c r="E1">
+        <v>2022</v>
+      </c>
+      <c r="F1">
+        <v>2023</v>
+      </c>
+      <c r="G1">
+        <v>2024</v>
+      </c>
+      <c r="H1">
+        <v>2025</v>
+      </c>
+      <c r="I1">
+        <v>2026</v>
+      </c>
+      <c r="J1">
+        <v>2027</v>
+      </c>
+      <c r="K1">
+        <v>2028</v>
+      </c>
+      <c r="L1">
+        <v>2029</v>
+      </c>
+      <c r="M1">
+        <v>2030</v>
+      </c>
+      <c r="N1">
+        <v>2031</v>
+      </c>
+      <c r="O1">
+        <v>2032</v>
+      </c>
+      <c r="P1">
+        <v>2033</v>
+      </c>
+      <c r="Q1">
+        <v>2034</v>
+      </c>
+      <c r="R1">
+        <v>2035</v>
+      </c>
+      <c r="S1">
+        <v>2036</v>
+      </c>
+      <c r="T1">
+        <v>2037</v>
+      </c>
+      <c r="U1">
+        <v>2038</v>
+      </c>
+      <c r="V1">
+        <v>2039</v>
+      </c>
+      <c r="W1">
+        <v>2040</v>
+      </c>
+      <c r="X1">
+        <v>2041</v>
+      </c>
+      <c r="Y1">
+        <v>2042</v>
+      </c>
+      <c r="Z1">
+        <v>2043</v>
+      </c>
+      <c r="AA1">
+        <v>2044</v>
+      </c>
+      <c r="AB1">
+        <v>2045</v>
+      </c>
+      <c r="AC1">
+        <v>2046</v>
+      </c>
+      <c r="AD1">
+        <v>2047</v>
+      </c>
+      <c r="AE1">
+        <v>2048</v>
+      </c>
+      <c r="AF1">
+        <v>2049</v>
+      </c>
+      <c r="AG1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <f>'BPEaCP-population'!B2*'Avg Emp-Pop Ratio'!$B$5</f>
+        <v>23064019.446787994</v>
+      </c>
+      <c r="C2">
+        <f>'BPEaCP-population'!C2*'Avg Emp-Pop Ratio'!$B$5</f>
+        <v>23262045.029418945</v>
+      </c>
+      <c r="D2">
+        <f>'BPEaCP-population'!D2*'Avg Emp-Pop Ratio'!$B$5</f>
+        <v>23457777.050003052</v>
+      </c>
+      <c r="E2">
+        <f>'BPEaCP-population'!E2*'Avg Emp-Pop Ratio'!$B$5</f>
+        <v>23651054.750579834</v>
+      </c>
+      <c r="F2">
+        <f>'BPEaCP-population'!F2*'Avg Emp-Pop Ratio'!$B$5</f>
+        <v>23842491.711151123</v>
+      </c>
+      <c r="G2">
+        <f>'BPEaCP-population'!G2*'Avg Emp-Pop Ratio'!$B$5</f>
+        <v>24031474.351715088</v>
+      </c>
+      <c r="H2">
+        <f>'BPEaCP-population'!H2*'Avg Emp-Pop Ratio'!$B$5</f>
+        <v>24218616.25227356</v>
+      </c>
+      <c r="I2">
+        <f>'BPEaCP-population'!I2*'Avg Emp-Pop Ratio'!$B$5</f>
+        <v>24403303.832824707</v>
+      </c>
+      <c r="J2">
+        <f>'BPEaCP-population'!J2*'Avg Emp-Pop Ratio'!$B$5</f>
+        <v>24584923.513366699</v>
+      </c>
+      <c r="K2">
+        <f>'BPEaCP-population'!K2*'Avg Emp-Pop Ratio'!$B$5</f>
+        <v>24762861.713897705</v>
+      </c>
+      <c r="L2">
+        <f>'BPEaCP-population'!L2*'Avg Emp-Pop Ratio'!$B$5</f>
+        <v>24937732.014419556</v>
+      </c>
+      <c r="M2">
+        <f>'BPEaCP-population'!M2*'Avg Emp-Pop Ratio'!$B$5</f>
+        <v>25108920.83493042</v>
+      </c>
+      <c r="N2">
+        <f>'BPEaCP-population'!N2*'Avg Emp-Pop Ratio'!$B$5</f>
+        <v>25277655.33543396</v>
+      </c>
+      <c r="O2">
+        <f>'BPEaCP-population'!O2*'Avg Emp-Pop Ratio'!$B$5</f>
+        <v>25442094.775924683</v>
+      </c>
+      <c r="P2">
+        <f>'BPEaCP-population'!P2*'Avg Emp-Pop Ratio'!$B$5</f>
+        <v>25602852.736404419</v>
+      </c>
+      <c r="Q2">
+        <f>'BPEaCP-population'!Q2*'Avg Emp-Pop Ratio'!$B$5</f>
+        <v>25758702.056869507</v>
+      </c>
+      <c r="R2">
+        <f>'BPEaCP-population'!R2*'Avg Emp-Pop Ratio'!$B$5</f>
+        <v>25910256.317321777</v>
+      </c>
+      <c r="S2">
+        <f>'BPEaCP-population'!S2*'Avg Emp-Pop Ratio'!$B$5</f>
+        <v>26056901.937759399</v>
+      </c>
+      <c r="T2">
+        <f>'BPEaCP-population'!T2*'Avg Emp-Pop Ratio'!$B$5</f>
+        <v>26199252.498184204</v>
+      </c>
+      <c r="U2">
+        <f>'BPEaCP-population'!U2*'Avg Emp-Pop Ratio'!$B$5</f>
+        <v>26338535.158599854</v>
+      </c>
+      <c r="V2">
+        <f>'BPEaCP-population'!V2*'Avg Emp-Pop Ratio'!$B$5</f>
+        <v>26473522.759002686</v>
+      </c>
+      <c r="W2">
+        <f>'BPEaCP-population'!W2*'Avg Emp-Pop Ratio'!$B$5</f>
+        <v>26605442.459396362</v>
+      </c>
+      <c r="X2">
+        <f>'BPEaCP-population'!X2*'Avg Emp-Pop Ratio'!$B$5</f>
+        <v>26733680.679779053</v>
+      </c>
+      <c r="Y2">
+        <f>'BPEaCP-population'!Y2*'Avg Emp-Pop Ratio'!$B$5</f>
+        <v>26860078.16015625</v>
+      </c>
+      <c r="Z2">
+        <f>'BPEaCP-population'!Z2*'Avg Emp-Pop Ratio'!$B$5</f>
+        <v>26983407.740524292</v>
+      </c>
+      <c r="AA2">
+        <f>'BPEaCP-population'!AA2*'Avg Emp-Pop Ratio'!$B$5</f>
+        <v>27106123.740890503</v>
+      </c>
+      <c r="AB2">
+        <f>'BPEaCP-population'!AB2*'Avg Emp-Pop Ratio'!$B$5</f>
+        <v>27227612.581253052</v>
+      </c>
+      <c r="AC2">
+        <f>'BPEaCP-population'!AC2*'Avg Emp-Pop Ratio'!$B$5</f>
+        <v>27349715.001617432</v>
+      </c>
+      <c r="AD2">
+        <f>'BPEaCP-population'!AD2*'Avg Emp-Pop Ratio'!$B$5</f>
+        <v>27473044.581985474</v>
+      </c>
+      <c r="AE2">
+        <f>'BPEaCP-population'!AE2*'Avg Emp-Pop Ratio'!$B$5</f>
+        <v>27596987.742355347</v>
+      </c>
+      <c r="AF2">
+        <f>'BPEaCP-population'!AF2*'Avg Emp-Pop Ratio'!$B$5</f>
+        <v>27722771.642730713</v>
+      </c>
+      <c r="AG2">
+        <f>'BPEaCP-population'!AG2*'Avg Emp-Pop Ratio'!$B$5</f>
+        <v>27847328.383102417</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BADE7CEA-1BC2-4D8B-AD93-998F1C33A4B5}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4605,132 +4958,132 @@
         <v>76</v>
       </c>
       <c r="B2" s="19">
-        <f>'EE Comp Projection'!F17</f>
-        <v>670860615821.28809</v>
+        <f>INDEX(EPS!$B$45:$AG$45,MATCH('BPEaCP-employeecomp'!B$1,EPS!$B$1:$AG$1,0))</f>
+        <v>715985914000</v>
       </c>
       <c r="C2" s="19">
-        <f>'EE Comp Projection'!G17</f>
-        <v>675920174194.07251</v>
+        <f>INDEX(EPS!$B$45:$AG$45,MATCH('BPEaCP-employeecomp'!C$1,EPS!$B$1:$AG$1,0))</f>
+        <v>715985914000</v>
       </c>
       <c r="D2" s="19">
-        <f>'EE Comp Projection'!H17</f>
-        <v>680516057862.4364</v>
+        <f>INDEX(EPS!$B$45:$AG$45,MATCH('BPEaCP-employeecomp'!D$1,EPS!$B$1:$AG$1,0))</f>
+        <v>731469330000</v>
       </c>
       <c r="E2" s="19">
-        <f>'EE Comp Projection'!I17</f>
-        <v>685356745809.77966</v>
+        <f>INDEX(EPS!$B$45:$AG$45,MATCH('BPEaCP-employeecomp'!E$1,EPS!$B$1:$AG$1,0))</f>
+        <v>747006992000</v>
       </c>
       <c r="F2" s="19">
-        <f>'EE Comp Projection'!J17</f>
-        <v>690575407257.77673</v>
+        <f>INDEX(EPS!$B$45:$AG$45,MATCH('BPEaCP-employeecomp'!F$1,EPS!$B$1:$AG$1,0))</f>
+        <v>762481162000</v>
       </c>
       <c r="G2" s="19">
-        <f>'EE Comp Projection'!K17</f>
-        <v>696220041495.76563</v>
+        <f>INDEX(EPS!$B$45:$AG$45,MATCH('BPEaCP-employeecomp'!G$1,EPS!$B$1:$AG$1,0))</f>
+        <v>777768261000</v>
       </c>
       <c r="H2" s="19">
-        <f>'EE Comp Projection'!L17</f>
-        <v>702251498386.58313</v>
+        <f>INDEX(EPS!$B$45:$AG$45,MATCH('BPEaCP-employeecomp'!H$1,EPS!$B$1:$AG$1,0))</f>
+        <v>792747210000</v>
       </c>
       <c r="I2" s="19">
-        <f>'EE Comp Projection'!M17</f>
-        <v>708630728240.24097</v>
+        <f>INDEX(EPS!$B$45:$AG$45,MATCH('BPEaCP-employeecomp'!I$1,EPS!$B$1:$AG$1,0))</f>
+        <v>807305505000</v>
       </c>
       <c r="J2" s="19">
-        <f>'EE Comp Projection'!N17</f>
-        <v>715433810853.86389</v>
+        <f>INDEX(EPS!$B$45:$AG$45,MATCH('BPEaCP-employeecomp'!J$1,EPS!$B$1:$AG$1,0))</f>
+        <v>821338517000</v>
       </c>
       <c r="K2" s="19">
-        <f>'EE Comp Projection'!O17</f>
-        <v>722675246847.99475</v>
+        <f>INDEX(EPS!$B$45:$AG$45,MATCH('BPEaCP-employeecomp'!K$1,EPS!$B$1:$AG$1,0))</f>
+        <v>835703591000</v>
       </c>
       <c r="L2" s="19">
-        <f>'EE Comp Projection'!P17</f>
-        <v>730341742773.99915</v>
+        <f>INDEX(EPS!$B$45:$AG$45,MATCH('BPEaCP-employeecomp'!L$1,EPS!$B$1:$AG$1,0))</f>
+        <v>850407975000</v>
       </c>
       <c r="M2" s="19">
-        <f>'EE Comp Projection'!Q17</f>
-        <v>738458281665.41589</v>
+        <f>INDEX(EPS!$B$45:$AG$45,MATCH('BPEaCP-employeecomp'!M$1,EPS!$B$1:$AG$1,0))</f>
+        <v>865461274000</v>
       </c>
       <c r="N2" s="19">
-        <f>'EE Comp Projection'!R17</f>
-        <v>746997399225.1145</v>
+        <f>INDEX(EPS!$B$45:$AG$45,MATCH('BPEaCP-employeecomp'!N$1,EPS!$B$1:$AG$1,0))</f>
+        <v>880871387000</v>
       </c>
       <c r="O2" s="19">
-        <f>'EE Comp Projection'!S17</f>
-        <v>755937790804.17151</v>
+        <f>INDEX(EPS!$B$45:$AG$45,MATCH('BPEaCP-employeecomp'!O$1,EPS!$B$1:$AG$1,0))</f>
+        <v>896647788000</v>
       </c>
       <c r="P2" s="19">
-        <f>'EE Comp Projection'!T17</f>
-        <v>765258977445.51575</v>
+        <f>INDEX(EPS!$B$45:$AG$45,MATCH('BPEaCP-employeecomp'!P$1,EPS!$B$1:$AG$1,0))</f>
+        <v>912800702000</v>
       </c>
       <c r="Q2" s="19">
-        <f>'EE Comp Projection'!U17</f>
-        <v>774988224286.71753</v>
+        <f>INDEX(EPS!$B$45:$AG$45,MATCH('BPEaCP-employeecomp'!Q$1,EPS!$B$1:$AG$1,0))</f>
+        <v>929339709000</v>
       </c>
       <c r="R2" s="19">
-        <f>'EE Comp Projection'!V17</f>
-        <v>785098261361.58569</v>
+        <f>INDEX(EPS!$B$45:$AG$45,MATCH('BPEaCP-employeecomp'!R$1,EPS!$B$1:$AG$1,0))</f>
+        <v>946273835000</v>
       </c>
       <c r="S2" s="19">
-        <f>'EE Comp Projection'!W17</f>
-        <v>795602596428.15527</v>
+        <f>INDEX(EPS!$B$45:$AG$45,MATCH('BPEaCP-employeecomp'!S$1,EPS!$B$1:$AG$1,0))</f>
+        <v>963614734000</v>
       </c>
       <c r="T2" s="19">
-        <f>'EE Comp Projection'!X17</f>
-        <v>806481980819.86267</v>
+        <f>INDEX(EPS!$B$45:$AG$45,MATCH('BPEaCP-employeecomp'!T$1,EPS!$B$1:$AG$1,0))</f>
+        <v>981372527000</v>
       </c>
       <c r="U2" s="19">
-        <f>'EE Comp Projection'!Y17</f>
-        <v>817697910365.5116</v>
+        <f>INDEX(EPS!$B$45:$AG$45,MATCH('BPEaCP-employeecomp'!U$1,EPS!$B$1:$AG$1,0))</f>
+        <v>999558368000</v>
       </c>
       <c r="V2" s="19">
-        <f>'EE Comp Projection'!Z17</f>
-        <v>829288116779.10144</v>
+        <f>INDEX(EPS!$B$45:$AG$45,MATCH('BPEaCP-employeecomp'!V$1,EPS!$B$1:$AG$1,0))</f>
+        <v>1018181523000</v>
       </c>
       <c r="W2" s="19">
-        <f>'EE Comp Projection'!AA17</f>
-        <v>841215818773.48254</v>
+        <f>INDEX(EPS!$B$45:$AG$45,MATCH('BPEaCP-employeecomp'!W$1,EPS!$B$1:$AG$1,0))</f>
+        <v>1037257652000</v>
       </c>
       <c r="X2" s="19">
-        <f>'EE Comp Projection'!AB17</f>
-        <v>853502158926.9696</v>
+        <f>INDEX(EPS!$B$45:$AG$45,MATCH('BPEaCP-employeecomp'!X$1,EPS!$B$1:$AG$1,0))</f>
+        <v>1056794340000</v>
       </c>
       <c r="Y2" s="19">
-        <f>'EE Comp Projection'!AC17</f>
-        <v>866088737127.36426</v>
+        <f>INDEX(EPS!$B$45:$AG$45,MATCH('BPEaCP-employeecomp'!Y$1,EPS!$B$1:$AG$1,0))</f>
+        <v>1076807055000</v>
       </c>
       <c r="Z2" s="19">
-        <f>'EE Comp Projection'!AD17</f>
-        <v>879004546081.52991</v>
+        <f>INDEX(EPS!$B$45:$AG$45,MATCH('BPEaCP-employeecomp'!Z$1,EPS!$B$1:$AG$1,0))</f>
+        <v>1097305113000</v>
       </c>
       <c r="AA2" s="19">
-        <f>'EE Comp Projection'!AE17</f>
-        <v>892153195384.96472</v>
+        <f>INDEX(EPS!$B$45:$AG$45,MATCH('BPEaCP-employeecomp'!AA$1,EPS!$B$1:$AG$1,0))</f>
+        <v>1118305133000</v>
       </c>
       <c r="AB2" s="19">
-        <f>'EE Comp Projection'!AF17</f>
-        <v>905539807181.16321</v>
+        <f>INDEX(EPS!$B$45:$AG$45,MATCH('BPEaCP-employeecomp'!AB$1,EPS!$B$1:$AG$1,0))</f>
+        <v>1139816640000</v>
       </c>
       <c r="AC2" s="19">
-        <f>'EE Comp Projection'!AG17</f>
-        <v>919098760403.25061</v>
+        <f>INDEX(EPS!$B$45:$AG$45,MATCH('BPEaCP-employeecomp'!AC$1,EPS!$B$1:$AG$1,0))</f>
+        <v>1161857074000</v>
       </c>
       <c r="AD2" s="19">
-        <f>'EE Comp Projection'!AH17</f>
-        <v>932810091358.68408</v>
+        <f>INDEX(EPS!$B$45:$AG$45,MATCH('BPEaCP-employeecomp'!AD$1,EPS!$B$1:$AG$1,0))</f>
+        <v>1184438352000</v>
       </c>
       <c r="AE2" s="19">
-        <f>'EE Comp Projection'!AI17</f>
-        <v>946694695892.43079</v>
+        <f>INDEX(EPS!$B$45:$AG$45,MATCH('BPEaCP-employeecomp'!AE$1,EPS!$B$1:$AG$1,0))</f>
+        <v>1207574458000</v>
       </c>
       <c r="AF2" s="19">
-        <f>'EE Comp Projection'!AJ17</f>
-        <v>960711512912.26416</v>
+        <f>INDEX(EPS!$B$45:$AG$45,MATCH('BPEaCP-employeecomp'!AF$1,EPS!$B$1:$AG$1,0))</f>
+        <v>1231280134000</v>
       </c>
       <c r="AG2" s="19">
-        <f>'EE Comp Projection'!AK17</f>
-        <v>974975770179.59009</v>
+        <f>INDEX(EPS!$B$45:$AG$45,MATCH('BPEaCP-employeecomp'!AG$1,EPS!$B$1:$AG$1,0))</f>
+        <v>1255573464000</v>
       </c>
       <c r="AH2" s="19"/>
     </row>
@@ -5612,264 +5965,264 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="10" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="B10" s="24"/>
+      <c r="B10" s="10"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="10" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="25">
+      <c r="A12" s="24">
         <v>33239</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="25">
         <v>59.419998168945298</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="25">
+      <c r="A13" s="24">
         <v>33604</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="25">
         <v>58.029998779296903</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="25">
+      <c r="A14" s="24">
         <v>33970</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="25">
         <v>57.599998474121101</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="25">
+      <c r="A15" s="24">
         <v>34335</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="25">
         <v>58.049999237060497</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="25">
+      <c r="A16" s="24">
         <v>34700</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="25">
         <v>58.299999237060497</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="25">
+      <c r="A17" s="24">
         <v>35065</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="25">
         <v>58.040000915527301</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="25">
+      <c r="A18" s="24">
         <v>35431</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="25">
         <v>58.549999237060497</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="25">
+      <c r="A19" s="24">
         <v>35796</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="25">
         <v>59.319999694824197</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="25">
+      <c r="A20" s="24">
         <v>36161</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="25">
         <v>60.139999389648402</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="25">
+      <c r="A21" s="24">
         <v>36526</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B21" s="25">
         <v>60.810001373291001</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="25">
+      <c r="A22" s="24">
         <v>36892</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B22" s="25">
         <v>60.650001525878899</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="25">
+      <c r="A23" s="24">
         <v>37257</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B23" s="25">
         <v>61.240001678466797</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="25">
+      <c r="A24" s="24">
         <v>37622</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="25">
         <v>61.9799995422363</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="25">
+      <c r="A25" s="24">
         <v>37987</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="25">
         <v>62.189998626708999</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="25">
+      <c r="A26" s="24">
         <v>38353</v>
       </c>
-      <c r="B26" s="26">
+      <c r="B26" s="25">
         <v>62.159999847412102</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="25">
+      <c r="A27" s="24">
         <v>38718</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B27" s="25">
         <v>62.369998931884801</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="25">
+      <c r="A28" s="24">
         <v>39083</v>
       </c>
-      <c r="B28" s="26">
+      <c r="B28" s="25">
         <v>63.009998321533203</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="25">
+      <c r="A29" s="24">
         <v>39448</v>
       </c>
-      <c r="B29" s="26">
+      <c r="B29" s="25">
         <v>63.099998474121101</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="25">
+      <c r="A30" s="24">
         <v>39814</v>
       </c>
-      <c r="B30" s="26">
+      <c r="B30" s="25">
         <v>61.200000762939503</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="25">
+      <c r="A31" s="24">
         <v>40179</v>
       </c>
-      <c r="B31" s="26">
+      <c r="B31" s="25">
         <v>61.25</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="25">
+      <c r="A32" s="24">
         <v>40544</v>
       </c>
-      <c r="B32" s="26">
+      <c r="B32" s="25">
         <v>61.419998168945298</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="25">
+      <c r="A33" s="24">
         <v>40909</v>
       </c>
-      <c r="B33" s="26">
+      <c r="B33" s="25">
         <v>61.419998168945298</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="25">
+      <c r="A34" s="24">
         <v>41275</v>
       </c>
-      <c r="B34" s="26">
+      <c r="B34" s="25">
         <v>61.540000915527301</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="25">
+      <c r="A35" s="24">
         <v>41640</v>
       </c>
-      <c r="B35" s="26">
+      <c r="B35" s="25">
         <v>61.220001220703097</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="25">
+      <c r="A36" s="24">
         <v>42005</v>
       </c>
-      <c r="B36" s="26">
+      <c r="B36" s="25">
         <v>61.080001831054702</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="25">
+      <c r="A37" s="24">
         <v>42370</v>
       </c>
-      <c r="B37" s="26">
+      <c r="B37" s="25">
         <v>60.909999847412102</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="25">
+      <c r="A38" s="24">
         <v>42736</v>
       </c>
-      <c r="B38" s="26">
+      <c r="B38" s="25">
         <v>61.430000305175803</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="25">
+      <c r="A39" s="24">
         <v>43101</v>
       </c>
-      <c r="B39" s="26">
+      <c r="B39" s="25">
         <v>61.450000762939503</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="25">
+      <c r="A40" s="24">
         <v>43466</v>
       </c>
-      <c r="B40" s="26">
+      <c r="B40" s="25">
         <v>61.860000610351598</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="25">
+      <c r="A41" s="24">
         <v>43831</v>
       </c>
-      <c r="B41" s="26">
+      <c r="B41" s="25">
         <v>57.860000610351598</v>
       </c>
     </row>
@@ -9299,7 +9652,7 @@
   <dimension ref="A1:AL12"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9331,186 +9684,186 @@
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="42" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="43"/>
-      <c r="AK3" s="43"/>
-      <c r="AL3" s="44"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="42"/>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="42"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="43"/>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="37" t="s">
+      <c r="B4" s="35"/>
+      <c r="C4" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="38"/>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="38"/>
-      <c r="AL4" s="39"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="37"/>
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="37"/>
+      <c r="AD4" s="37"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="37"/>
+      <c r="AG4" s="37"/>
+      <c r="AH4" s="37"/>
+      <c r="AI4" s="37"/>
+      <c r="AJ4" s="37"/>
+      <c r="AK4" s="37"/>
+      <c r="AL4" s="38"/>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="37" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="38"/>
-      <c r="AC5" s="38"/>
-      <c r="AD5" s="38"/>
-      <c r="AE5" s="38"/>
-      <c r="AF5" s="38"/>
-      <c r="AG5" s="38"/>
-      <c r="AH5" s="38"/>
-      <c r="AI5" s="38"/>
-      <c r="AJ5" s="38"/>
-      <c r="AK5" s="38"/>
-      <c r="AL5" s="39"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="37"/>
+      <c r="Z5" s="37"/>
+      <c r="AA5" s="37"/>
+      <c r="AB5" s="37"/>
+      <c r="AC5" s="37"/>
+      <c r="AD5" s="37"/>
+      <c r="AE5" s="37"/>
+      <c r="AF5" s="37"/>
+      <c r="AG5" s="37"/>
+      <c r="AH5" s="37"/>
+      <c r="AI5" s="37"/>
+      <c r="AJ5" s="37"/>
+      <c r="AK5" s="37"/>
+      <c r="AL5" s="38"/>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="37" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="38"/>
-      <c r="AC6" s="38"/>
-      <c r="AD6" s="38"/>
-      <c r="AE6" s="38"/>
-      <c r="AF6" s="38"/>
-      <c r="AG6" s="38"/>
-      <c r="AH6" s="38"/>
-      <c r="AI6" s="38"/>
-      <c r="AJ6" s="38"/>
-      <c r="AK6" s="38"/>
-      <c r="AL6" s="39"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="37"/>
+      <c r="AB6" s="37"/>
+      <c r="AC6" s="37"/>
+      <c r="AD6" s="37"/>
+      <c r="AE6" s="37"/>
+      <c r="AF6" s="37"/>
+      <c r="AG6" s="37"/>
+      <c r="AH6" s="37"/>
+      <c r="AI6" s="37"/>
+      <c r="AJ6" s="37"/>
+      <c r="AK6" s="37"/>
+      <c r="AL6" s="38"/>
     </row>
     <row r="7" spans="1:38" ht="126" x14ac:dyDescent="0.2">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="41"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="12" t="s">
         <v>30</v>
       </c>
@@ -10085,7 +10438,7 @@
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="26" t="s">
         <v>158</v>
       </c>
     </row>
@@ -10130,277 +10483,277 @@
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29">
+      <c r="A5" s="28">
         <v>1960</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29">
+      <c r="A6" s="28">
         <v>1961</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29">
+      <c r="A7" s="28">
         <v>1962</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29">
+      <c r="A8" s="28">
         <v>1963</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29">
+      <c r="A9" s="28">
         <v>1964</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29">
+      <c r="A10" s="28">
         <v>1965</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29">
+      <c r="A11" s="28">
         <v>1966</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29">
+      <c r="A12" s="28">
         <v>1967</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29">
+      <c r="A13" s="28">
         <v>1968</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29">
+      <c r="A14" s="28">
         <v>1969</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29">
+      <c r="A15" s="28">
         <v>1970</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29">
+      <c r="A16" s="28">
         <v>1971</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29">
+      <c r="A17" s="28">
         <v>1972</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29">
+      <c r="A18" s="28">
         <v>1973</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="29">
+      <c r="A19" s="28">
         <v>1974</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="29">
+      <c r="A20" s="28">
         <v>1975</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29">
+      <c r="A21" s="28">
         <v>1976</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="29">
+      <c r="A22" s="28">
         <v>1977</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="29">
+      <c r="A23" s="28">
         <v>1978</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="29">
+      <c r="A24" s="28">
         <v>1979</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="29">
+      <c r="A25" s="28">
         <v>1980</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="29">
+      <c r="A26" s="28">
         <v>1981</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="29">
+      <c r="A27" s="28">
         <v>1982</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="29">
+      <c r="A28" s="28">
         <v>1983</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="29">
+      <c r="A29" s="28">
         <v>1984</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="29">
+      <c r="A30" s="28">
         <v>1985</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="29">
+      <c r="A31" s="28">
         <v>1986</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="29">
+      <c r="A32" s="28">
         <v>1987</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="29">
+      <c r="A33" s="28">
         <v>1988</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="29">
+      <c r="A34" s="28">
         <v>1989</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="29">
+      <c r="A35" s="28">
         <v>1990</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="29">
+      <c r="A36" s="28">
         <v>1991</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="29">
+      <c r="A37" s="28">
         <v>1992</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="29">
+      <c r="A38" s="28">
         <v>1993</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="29">
+      <c r="A39" s="28">
         <v>1994</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="29">
+      <c r="A40" s="28">
         <v>1995</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="29">
+      <c r="A41" s="28">
         <v>1996</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="29">
+      <c r="A42" s="28">
         <v>1997</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="29">
+      <c r="A43" s="28">
         <v>1998</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="29">
+      <c r="A44" s="28">
         <v>1999</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="29">
+      <c r="A45" s="28">
         <v>2000</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="29">
+      <c r="A46" s="28">
         <v>2001</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="29">
+      <c r="A47" s="28">
         <v>2002</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="29">
+      <c r="A48" s="28">
         <v>2003</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="29">
+      <c r="A49" s="28">
         <v>2004</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="29">
+      <c r="A50" s="28">
         <v>2005</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="29">
+      <c r="A51" s="28">
         <v>2006</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="29">
+      <c r="A52" s="28">
         <v>2007</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="29">
+      <c r="A53" s="28">
         <v>2008</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="29">
+      <c r="A54" s="28">
         <v>2009</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="29">
+      <c r="A55" s="28">
         <v>2010</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="29">
+      <c r="A56" s="28">
         <v>2011</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="29">
+      <c r="A57" s="28">
         <v>2012</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="29">
+      <c r="A58" s="28">
         <v>2013</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="29">
+      <c r="A59" s="28">
         <v>2014</v>
       </c>
       <c r="B59">
@@ -10408,7 +10761,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="29">
+      <c r="A60" s="28">
         <v>2015</v>
       </c>
       <c r="B60">
@@ -10416,7 +10769,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="29">
+      <c r="A61" s="28">
         <v>2016</v>
       </c>
       <c r="B61">
@@ -10424,7 +10777,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="29">
+      <c r="A62" s="28">
         <v>2017</v>
       </c>
       <c r="B62">
@@ -10432,7 +10785,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="29">
+      <c r="A63" s="28">
         <v>2018</v>
       </c>
       <c r="B63">
@@ -10440,7 +10793,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="29">
+      <c r="A64" s="28">
         <v>2019</v>
       </c>
       <c r="B64">
@@ -10448,7 +10801,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="30">
+      <c r="A65" s="29">
         <v>2020</v>
       </c>
       <c r="B65">
@@ -10456,7 +10809,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="30">
+      <c r="A66" s="29">
         <v>2021</v>
       </c>
       <c r="B66">
@@ -10464,7 +10817,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="30">
+      <c r="A67" s="29">
         <v>2022</v>
       </c>
       <c r="B67">
@@ -10472,7 +10825,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="30">
+      <c r="A68" s="29">
         <v>2023</v>
       </c>
       <c r="B68">
@@ -10480,7 +10833,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="30">
+      <c r="A69" s="29">
         <v>2024</v>
       </c>
       <c r="B69">
@@ -10488,7 +10841,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="30">
+      <c r="A70" s="29">
         <v>2025</v>
       </c>
       <c r="B70">
@@ -10496,7 +10849,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="30">
+      <c r="A71" s="29">
         <v>2026</v>
       </c>
       <c r="B71">
@@ -10504,7 +10857,7 @@
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="30">
+      <c r="A72" s="29">
         <v>2027</v>
       </c>
       <c r="B72">
@@ -10512,7 +10865,7 @@
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="30">
+      <c r="A73" s="29">
         <v>2028</v>
       </c>
       <c r="B73">
@@ -10520,7 +10873,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="30">
+      <c r="A74" s="29">
         <v>2029</v>
       </c>
       <c r="B74">
@@ -10528,7 +10881,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="30">
+      <c r="A75" s="29">
         <v>2030</v>
       </c>
       <c r="B75">
@@ -10536,7 +10889,7 @@
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="30">
+      <c r="A76" s="29">
         <v>2031</v>
       </c>
       <c r="B76">
@@ -10544,7 +10897,7 @@
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="30">
+      <c r="A77" s="29">
         <v>2032</v>
       </c>
       <c r="B77">
@@ -10552,7 +10905,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="30">
+      <c r="A78" s="29">
         <v>2033</v>
       </c>
       <c r="B78">
@@ -10560,7 +10913,7 @@
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="30">
+      <c r="A79" s="29">
         <v>2034</v>
       </c>
       <c r="B79">
@@ -10568,7 +10921,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="30">
+      <c r="A80" s="29">
         <v>2035</v>
       </c>
       <c r="B80">
@@ -10576,7 +10929,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="30">
+      <c r="A81" s="29">
         <v>2036</v>
       </c>
       <c r="B81">
@@ -10584,7 +10937,7 @@
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="30">
+      <c r="A82" s="29">
         <v>2037</v>
       </c>
       <c r="B82">
@@ -10592,7 +10945,7 @@
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="30">
+      <c r="A83" s="29">
         <v>2038</v>
       </c>
       <c r="B83">
@@ -10600,7 +10953,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="30">
+      <c r="A84" s="29">
         <v>2039</v>
       </c>
       <c r="B84">
@@ -10608,7 +10961,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="30">
+      <c r="A85" s="29">
         <v>2040</v>
       </c>
       <c r="B85">
@@ -10616,7 +10969,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="30">
+      <c r="A86" s="29">
         <v>2041</v>
       </c>
       <c r="B86">
@@ -10624,7 +10977,7 @@
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="30">
+      <c r="A87" s="29">
         <v>2042</v>
       </c>
       <c r="B87">
@@ -10632,7 +10985,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="30">
+      <c r="A88" s="29">
         <v>2043</v>
       </c>
       <c r="B88">
@@ -10640,7 +10993,7 @@
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="30">
+      <c r="A89" s="29">
         <v>2044</v>
       </c>
       <c r="B89">
@@ -10648,7 +11001,7 @@
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="30">
+      <c r="A90" s="29">
         <v>2045</v>
       </c>
       <c r="B90">
@@ -10656,7 +11009,7 @@
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="30">
+      <c r="A91" s="29">
         <v>2046</v>
       </c>
       <c r="B91">
@@ -10664,7 +11017,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="30">
+      <c r="A92" s="29">
         <v>2047</v>
       </c>
       <c r="B92">
@@ -10672,7 +11025,7 @@
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="30">
+      <c r="A93" s="29">
         <v>2048</v>
       </c>
       <c r="B93">
@@ -10680,7 +11033,7 @@
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="30">
+      <c r="A94" s="29">
         <v>2049</v>
       </c>
       <c r="B94">
@@ -10688,7 +11041,7 @@
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="30">
+      <c r="A95" s="29">
         <v>2050</v>
       </c>
       <c r="B95">
@@ -10696,7 +11049,7 @@
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="30">
+      <c r="A96" s="29">
         <v>2051</v>
       </c>
       <c r="B96">
@@ -10704,7 +11057,7 @@
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="30">
+      <c r="A97" s="29">
         <v>2052</v>
       </c>
       <c r="B97">
@@ -10712,7 +11065,7 @@
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="30">
+      <c r="A98" s="29">
         <v>2053</v>
       </c>
       <c r="B98">
@@ -10720,7 +11073,7 @@
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="30">
+      <c r="A99" s="29">
         <v>2054</v>
       </c>
       <c r="B99">
@@ -10728,7 +11081,7 @@
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="30">
+      <c r="A100" s="29">
         <v>2055</v>
       </c>
       <c r="B100">
@@ -10736,7 +11089,7 @@
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="30">
+      <c r="A101" s="29">
         <v>2056</v>
       </c>
       <c r="B101">
@@ -10744,7 +11097,7 @@
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="30">
+      <c r="A102" s="29">
         <v>2057</v>
       </c>
       <c r="B102">
@@ -10752,7 +11105,7 @@
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="30">
+      <c r="A103" s="29">
         <v>2058</v>
       </c>
       <c r="B103">
@@ -10760,7 +11113,7 @@
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="30">
+      <c r="A104" s="29">
         <v>2059</v>
       </c>
       <c r="B104">
@@ -10768,7 +11121,7 @@
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="30">
+      <c r="A105" s="29">
         <v>2060</v>
       </c>
       <c r="B105">
@@ -10820,161 +11173,161 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:63" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+    <row r="3" spans="1:63" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="28">
         <v>2000</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="28">
         <v>2001</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="28">
         <v>2002</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="28">
         <v>2003</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="28">
         <v>2004</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="28">
         <v>2005</v>
       </c>
-      <c r="I3" s="29">
+      <c r="I3" s="28">
         <v>2006</v>
       </c>
-      <c r="J3" s="29">
+      <c r="J3" s="28">
         <v>2007</v>
       </c>
-      <c r="K3" s="29">
+      <c r="K3" s="28">
         <v>2008</v>
       </c>
-      <c r="L3" s="29">
+      <c r="L3" s="28">
         <v>2009</v>
       </c>
-      <c r="M3" s="29">
+      <c r="M3" s="28">
         <v>2010</v>
       </c>
-      <c r="N3" s="29">
+      <c r="N3" s="28">
         <v>2011</v>
       </c>
-      <c r="O3" s="29">
+      <c r="O3" s="28">
         <v>2012</v>
       </c>
-      <c r="P3" s="29">
+      <c r="P3" s="28">
         <v>2013</v>
       </c>
-      <c r="Q3" s="29">
+      <c r="Q3" s="28">
         <v>2014</v>
       </c>
-      <c r="R3" s="29">
+      <c r="R3" s="28">
         <v>2015</v>
       </c>
-      <c r="S3" s="29">
+      <c r="S3" s="28">
         <v>2016</v>
       </c>
-      <c r="T3" s="29">
+      <c r="T3" s="28">
         <v>2017</v>
       </c>
-      <c r="U3" s="29">
+      <c r="U3" s="28">
         <v>2018</v>
       </c>
-      <c r="V3" s="29">
+      <c r="V3" s="28">
         <v>2019</v>
       </c>
-      <c r="W3" s="29">
+      <c r="W3" s="28">
         <v>2020</v>
       </c>
-      <c r="X3" s="29">
+      <c r="X3" s="28">
         <v>2021</v>
       </c>
-      <c r="Y3" s="29">
+      <c r="Y3" s="28">
         <v>2022</v>
       </c>
-      <c r="Z3" s="29">
+      <c r="Z3" s="28">
         <v>2023</v>
       </c>
-      <c r="AA3" s="29">
+      <c r="AA3" s="28">
         <v>2024</v>
       </c>
-      <c r="AB3" s="29">
+      <c r="AB3" s="28">
         <v>2025</v>
       </c>
-      <c r="AC3" s="29">
+      <c r="AC3" s="28">
         <v>2026</v>
       </c>
-      <c r="AD3" s="29">
+      <c r="AD3" s="28">
         <v>2027</v>
       </c>
-      <c r="AE3" s="29">
+      <c r="AE3" s="28">
         <v>2028</v>
       </c>
-      <c r="AF3" s="29">
+      <c r="AF3" s="28">
         <v>2029</v>
       </c>
-      <c r="AG3" s="29">
+      <c r="AG3" s="28">
         <v>2030</v>
       </c>
-      <c r="AH3" s="29">
+      <c r="AH3" s="28">
         <v>2031</v>
       </c>
-      <c r="AI3" s="29">
+      <c r="AI3" s="28">
         <v>2032</v>
       </c>
-      <c r="AJ3" s="29">
+      <c r="AJ3" s="28">
         <v>2033</v>
       </c>
-      <c r="AK3" s="29">
+      <c r="AK3" s="28">
         <v>2034</v>
       </c>
-      <c r="AL3" s="29">
+      <c r="AL3" s="28">
         <v>2035</v>
       </c>
-      <c r="AM3" s="29">
+      <c r="AM3" s="28">
         <v>2036</v>
       </c>
-      <c r="AN3" s="29">
+      <c r="AN3" s="28">
         <v>2037</v>
       </c>
-      <c r="AO3" s="29">
+      <c r="AO3" s="28">
         <v>2038</v>
       </c>
-      <c r="AP3" s="29">
+      <c r="AP3" s="28">
         <v>2039</v>
       </c>
-      <c r="AQ3" s="29">
+      <c r="AQ3" s="28">
         <v>2040</v>
       </c>
-      <c r="AR3" s="29">
+      <c r="AR3" s="28">
         <v>2041</v>
       </c>
-      <c r="AS3" s="29">
+      <c r="AS3" s="28">
         <v>2042</v>
       </c>
-      <c r="AT3" s="29">
+      <c r="AT3" s="28">
         <v>2043</v>
       </c>
-      <c r="AU3" s="29">
+      <c r="AU3" s="28">
         <v>2044</v>
       </c>
-      <c r="AV3" s="29">
+      <c r="AV3" s="28">
         <v>2045</v>
       </c>
-      <c r="AW3" s="29">
+      <c r="AW3" s="28">
         <v>2046</v>
       </c>
-      <c r="AX3" s="29">
+      <c r="AX3" s="28">
         <v>2047</v>
       </c>
-      <c r="AY3" s="29">
+      <c r="AY3" s="28">
         <v>2048</v>
       </c>
-      <c r="AZ3" s="29">
+      <c r="AZ3" s="28">
         <v>2049</v>
       </c>
-      <c r="BA3" s="29">
+      <c r="BA3" s="28">
         <v>2050</v>
       </c>
     </row>
@@ -11333,207 +11686,207 @@
       <c r="A6" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="31">
         <f>C4/C5</f>
         <v>0</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="31">
         <f t="shared" ref="D6:BA6" si="0">D4/D5</f>
         <v>0</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I6" s="32">
+      <c r="I6" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J6" s="32">
+      <c r="J6" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K6" s="32">
+      <c r="K6" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L6" s="32">
+      <c r="L6" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M6" s="32">
+      <c r="M6" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N6" s="32">
+      <c r="N6" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O6" s="32">
+      <c r="O6" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P6" s="32">
+      <c r="P6" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="32">
+      <c r="Q6" s="31">
         <f t="shared" si="0"/>
         <v>44731.109153585116</v>
       </c>
-      <c r="R6" s="32">
+      <c r="R6" s="31">
         <f t="shared" si="0"/>
         <v>44842.901754356557</v>
       </c>
-      <c r="S6" s="32">
+      <c r="S6" s="31">
         <f t="shared" si="0"/>
         <v>44964.959805106744</v>
       </c>
-      <c r="T6" s="32">
+      <c r="T6" s="31">
         <f t="shared" si="0"/>
         <v>45764.381381660118</v>
       </c>
-      <c r="U6" s="32">
+      <c r="U6" s="31">
         <f t="shared" si="0"/>
         <v>46075.125189392704</v>
       </c>
-      <c r="V6" s="32">
+      <c r="V6" s="31">
         <f t="shared" si="0"/>
         <v>46440.254871285106</v>
       </c>
-      <c r="W6" s="32">
+      <c r="W6" s="31">
         <f t="shared" si="0"/>
         <v>46790.502262213842</v>
       </c>
-      <c r="X6" s="32">
+      <c r="X6" s="31">
         <f t="shared" si="0"/>
         <v>47108.651820980689</v>
       </c>
-      <c r="Y6" s="32">
+      <c r="Y6" s="31">
         <f t="shared" si="0"/>
         <v>47443.74792995672</v>
       </c>
-      <c r="Z6" s="32">
+      <c r="Z6" s="31">
         <f t="shared" si="0"/>
         <v>47805.009214367092</v>
       </c>
-      <c r="AA6" s="32">
+      <c r="AA6" s="31">
         <f t="shared" si="0"/>
         <v>48195.758419917744</v>
       </c>
-      <c r="AB6" s="32">
+      <c r="AB6" s="31">
         <f t="shared" si="0"/>
         <v>48613.285382522074</v>
       </c>
-      <c r="AC6" s="32">
+      <c r="AC6" s="31">
         <f t="shared" si="0"/>
         <v>49054.886891538517</v>
       </c>
-      <c r="AD6" s="32">
+      <c r="AD6" s="31">
         <f t="shared" si="0"/>
         <v>49525.82956284182</v>
       </c>
-      <c r="AE6" s="32">
+      <c r="AE6" s="31">
         <f t="shared" si="0"/>
         <v>50027.117200348803</v>
       </c>
-      <c r="AF6" s="32">
+      <c r="AF6" s="31">
         <f t="shared" si="0"/>
         <v>50557.829566489781</v>
       </c>
-      <c r="AG6" s="32">
+      <c r="AG6" s="31">
         <f t="shared" si="0"/>
         <v>51119.696109107783</v>
       </c>
-      <c r="AH6" s="32">
+      <c r="AH6" s="31">
         <f t="shared" si="0"/>
         <v>51710.815615151201</v>
       </c>
-      <c r="AI6" s="32">
+      <c r="AI6" s="31">
         <f t="shared" si="0"/>
         <v>52329.713272561312</v>
       </c>
-      <c r="AJ6" s="32">
+      <c r="AJ6" s="31">
         <f t="shared" si="0"/>
         <v>52974.97142771013</v>
       </c>
-      <c r="AK6" s="32">
+      <c r="AK6" s="31">
         <f t="shared" si="0"/>
         <v>53648.477506849857</v>
       </c>
-      <c r="AL6" s="32">
+      <c r="AL6" s="31">
         <f t="shared" si="0"/>
         <v>54348.343749467524</v>
       </c>
-      <c r="AM6" s="32">
+      <c r="AM6" s="31">
         <f t="shared" si="0"/>
         <v>55075.50522867831</v>
       </c>
-      <c r="AN6" s="32">
+      <c r="AN6" s="31">
         <f t="shared" si="0"/>
         <v>55828.629457583957</v>
       </c>
-      <c r="AO6" s="32">
+      <c r="AO6" s="31">
         <f t="shared" si="0"/>
         <v>56605.050989023315</v>
       </c>
-      <c r="AP6" s="32">
+      <c r="AP6" s="31">
         <f t="shared" si="0"/>
         <v>57407.381796890128</v>
       </c>
-      <c r="AQ6" s="32">
+      <c r="AQ6" s="31">
         <f t="shared" si="0"/>
         <v>58233.075700488356</v>
       </c>
-      <c r="AR6" s="32">
+      <c r="AR6" s="31">
         <f t="shared" si="0"/>
         <v>59083.596292556089</v>
       </c>
-      <c r="AS6" s="32">
+      <c r="AS6" s="31">
         <f t="shared" si="0"/>
         <v>59954.900831529652</v>
       </c>
-      <c r="AT6" s="32">
+      <c r="AT6" s="31">
         <f t="shared" si="0"/>
         <v>60848.996334462063</v>
       </c>
-      <c r="AU6" s="32">
+      <c r="AU6" s="31">
         <f t="shared" si="0"/>
         <v>61759.210185840275</v>
       </c>
-      <c r="AV6" s="32">
+      <c r="AV6" s="31">
         <f t="shared" si="0"/>
         <v>62685.896965503634</v>
       </c>
-      <c r="AW6" s="32">
+      <c r="AW6" s="31">
         <f t="shared" si="0"/>
         <v>63624.51406206801</v>
       </c>
-      <c r="AX6" s="32">
+      <c r="AX6" s="31">
         <f t="shared" si="0"/>
         <v>64573.679491037678</v>
       </c>
-      <c r="AY6" s="32">
+      <c r="AY6" s="31">
         <f t="shared" si="0"/>
         <v>65534.839765060933</v>
       </c>
-      <c r="AZ6" s="32">
+      <c r="AZ6" s="31">
         <f t="shared" si="0"/>
         <v>66505.152434389893</v>
       </c>
-      <c r="BA6" s="32">
+      <c r="BA6" s="31">
         <f t="shared" si="0"/>
         <v>67492.59412856838</v>
       </c>
@@ -11565,269 +11918,269 @@
       <c r="A8" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33" t="e">
+      <c r="C8" s="32"/>
+      <c r="D8" s="32" t="e">
         <f>(D6-C6)/C6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E8" s="33" t="e">
+      <c r="E8" s="32" t="e">
         <f>(E6-D6)/D6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F8" s="33" t="e">
+      <c r="F8" s="32" t="e">
         <f t="shared" ref="F8:BA8" si="1">(F6-E6)/E6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G8" s="33" t="e">
+      <c r="G8" s="32" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H8" s="33" t="e">
+      <c r="H8" s="32" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I8" s="33" t="e">
+      <c r="I8" s="32" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J8" s="33" t="e">
+      <c r="J8" s="32" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="33" t="e">
+      <c r="K8" s="32" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="33" t="e">
+      <c r="L8" s="32" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M8" s="33" t="e">
+      <c r="M8" s="32" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N8" s="33" t="e">
+      <c r="N8" s="32" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="33" t="e">
+      <c r="O8" s="32" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P8" s="33" t="e">
+      <c r="P8" s="32" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q8" s="33" t="e">
+      <c r="Q8" s="32" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R8" s="33">
+      <c r="R8" s="32">
         <f t="shared" si="1"/>
         <v>2.4992136990746043E-3</v>
       </c>
-      <c r="S8" s="33">
+      <c r="S8" s="32">
         <f t="shared" si="1"/>
         <v>2.7219034891810749E-3</v>
       </c>
-      <c r="T8" s="33">
+      <c r="T8" s="32">
         <f t="shared" si="1"/>
         <v>1.7778767734216501E-2</v>
       </c>
-      <c r="U8" s="33">
+      <c r="U8" s="32">
         <f t="shared" si="1"/>
         <v>6.7900799344600181E-3</v>
       </c>
-      <c r="V8" s="33">
+      <c r="V8" s="32">
         <f t="shared" si="1"/>
         <v>7.9246595726333736E-3</v>
       </c>
-      <c r="W8" s="33">
+      <c r="W8" s="32">
         <f t="shared" si="1"/>
         <v>7.5418920912361537E-3</v>
       </c>
-      <c r="X8" s="33">
+      <c r="X8" s="32">
         <f t="shared" si="1"/>
         <v>6.7994473960535338E-3</v>
       </c>
-      <c r="Y8" s="33">
+      <c r="Y8" s="32">
         <f t="shared" si="1"/>
         <v>7.1132604314265288E-3</v>
       </c>
-      <c r="Z8" s="33">
+      <c r="Z8" s="32">
         <f t="shared" si="1"/>
         <v>7.6145182489317093E-3</v>
       </c>
-      <c r="AA8" s="33">
+      <c r="AA8" s="32">
         <f t="shared" si="1"/>
         <v>8.1738129951707643E-3</v>
       </c>
-      <c r="AB8" s="33">
+      <c r="AB8" s="32">
         <f t="shared" si="1"/>
         <v>8.6631474696698563E-3</v>
       </c>
-      <c r="AC8" s="33">
+      <c r="AC8" s="32">
         <f t="shared" si="1"/>
         <v>9.0839675932541004E-3</v>
       </c>
-      <c r="AD8" s="33">
+      <c r="AD8" s="32">
         <f t="shared" si="1"/>
         <v>9.6003212145727226E-3</v>
       </c>
-      <c r="AE8" s="33">
+      <c r="AE8" s="32">
         <f t="shared" si="1"/>
         <v>1.0121741360655334E-2</v>
       </c>
-      <c r="AF8" s="33">
+      <c r="AF8" s="32">
         <f t="shared" si="1"/>
         <v>1.0608493869746275E-2</v>
       </c>
-      <c r="AG8" s="33">
+      <c r="AG8" s="32">
         <f t="shared" si="1"/>
         <v>1.1113343817085296E-2</v>
       </c>
-      <c r="AH8" s="33">
+      <c r="AH8" s="32">
         <f t="shared" si="1"/>
         <v>1.1563439359689407E-2</v>
       </c>
-      <c r="AI8" s="33">
+      <c r="AI8" s="32">
         <f t="shared" si="1"/>
         <v>1.1968437357788929E-2</v>
       </c>
-      <c r="AJ8" s="33">
+      <c r="AJ8" s="32">
         <f t="shared" si="1"/>
         <v>1.2330626613372914E-2</v>
       </c>
-      <c r="AK8" s="33">
+      <c r="AK8" s="32">
         <f t="shared" si="1"/>
         <v>1.2713665736635566E-2</v>
       </c>
-      <c r="AL8" s="33">
+      <c r="AL8" s="32">
         <f t="shared" si="1"/>
         <v>1.304540734689643E-2</v>
       </c>
-      <c r="AM8" s="33">
+      <c r="AM8" s="32">
         <f t="shared" si="1"/>
         <v>1.3379643776502591E-2</v>
       </c>
-      <c r="AN8" s="33">
+      <c r="AN8" s="32">
         <f t="shared" si="1"/>
         <v>1.3674395282959434E-2</v>
       </c>
-      <c r="AO8" s="33">
+      <c r="AO8" s="32">
         <f t="shared" si="1"/>
         <v>1.3907228942978947E-2</v>
       </c>
-      <c r="AP8" s="33">
+      <c r="AP8" s="32">
         <f t="shared" si="1"/>
         <v>1.4174191063309846E-2</v>
       </c>
-      <c r="AQ8" s="33">
+      <c r="AQ8" s="32">
         <f t="shared" si="1"/>
         <v>1.4383061511489418E-2</v>
       </c>
-      <c r="AR8" s="33">
+      <c r="AR8" s="32">
         <f t="shared" si="1"/>
         <v>1.4605455436395574E-2</v>
       </c>
-      <c r="AS8" s="33">
+      <c r="AS8" s="32">
         <f t="shared" si="1"/>
         <v>1.4746978749554192E-2</v>
       </c>
-      <c r="AT8" s="33">
+      <c r="AT8" s="32">
         <f t="shared" si="1"/>
         <v>1.4912800964257705E-2</v>
       </c>
-      <c r="AU8" s="33">
+      <c r="AU8" s="32">
         <f t="shared" si="1"/>
         <v>1.4958568032497011E-2</v>
       </c>
-      <c r="AV8" s="33">
+      <c r="AV8" s="32">
         <f t="shared" si="1"/>
         <v>1.5004835341560505E-2</v>
       </c>
-      <c r="AW8" s="33">
+      <c r="AW8" s="32">
         <f t="shared" si="1"/>
         <v>1.4973337576726416E-2</v>
       </c>
-      <c r="AX8" s="33">
+      <c r="AX8" s="32">
         <f t="shared" si="1"/>
         <v>1.4918234629559952E-2</v>
       </c>
-      <c r="AY8" s="33">
+      <c r="AY8" s="32">
         <f t="shared" si="1"/>
         <v>1.4884706611099297E-2</v>
       </c>
-      <c r="AZ8" s="33">
+      <c r="AZ8" s="32">
         <f t="shared" si="1"/>
         <v>1.4806058469166647E-2</v>
       </c>
-      <c r="BA8" s="33">
+      <c r="BA8" s="32">
         <f t="shared" si="1"/>
         <v>1.4847596885859933E-2</v>
       </c>
     </row>
     <row r="9" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="34"/>
-      <c r="W9" s="34"/>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="34"/>
-      <c r="Z9" s="34"/>
-      <c r="AA9" s="34"/>
-      <c r="AB9" s="34"/>
-      <c r="AC9" s="34"/>
-      <c r="AD9" s="34"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="33"/>
+      <c r="AB9" s="33"/>
+      <c r="AC9" s="33"/>
+      <c r="AD9" s="33"/>
     </row>
     <row r="10" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B10" s="18"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="34"/>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="34"/>
-      <c r="AC10" s="34"/>
-      <c r="AD10" s="34"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33"/>
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="33"/>
+      <c r="AD10" s="33"/>
     </row>
     <row r="11" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
@@ -11837,33 +12190,33 @@
       <c r="B11" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="34"/>
-      <c r="AA11" s="34"/>
-      <c r="AB11" s="34"/>
-      <c r="AC11" s="34"/>
-      <c r="AD11" s="34"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="33"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="33"/>
+      <c r="AA11" s="33"/>
+      <c r="AB11" s="33"/>
+      <c r="AC11" s="33"/>
+      <c r="AD11" s="33"/>
     </row>
     <row r="12" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
@@ -11873,62 +12226,62 @@
       <c r="B12" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="34"/>
-      <c r="AA12" s="34"/>
-      <c r="AB12" s="34"/>
-      <c r="AC12" s="34"/>
-      <c r="AD12" s="34"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="33"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="33"/>
+      <c r="Z12" s="33"/>
+      <c r="AA12" s="33"/>
+      <c r="AB12" s="33"/>
+      <c r="AC12" s="33"/>
+      <c r="AD12" s="33"/>
     </row>
     <row r="13" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="34"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="34"/>
-      <c r="Z13" s="34"/>
-      <c r="AA13" s="34"/>
-      <c r="AB13" s="34"/>
-      <c r="AC13" s="34"/>
-      <c r="AD13" s="34"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="33"/>
+      <c r="X13" s="33"/>
+      <c r="Y13" s="33"/>
+      <c r="Z13" s="33"/>
+      <c r="AA13" s="33"/>
+      <c r="AB13" s="33"/>
+      <c r="AC13" s="33"/>
+      <c r="AD13" s="33"/>
     </row>
     <row r="14" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -12355,28 +12708,23 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D02B7A6-B7E4-4B42-ADE9-1C2AC0869798}">
-  <sheetPr>
-    <tabColor theme="4" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:AG2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B0C391-3692-4954-8133-67550CD29508}">
+  <dimension ref="A1:AG45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="A1:K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="2" max="33" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="75.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" cm="1">
-        <f t="array" ref="B1:AG1">TRANSPOSE('Pop Projection'!A7:A38)</f>
+      <c r="A1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1">
         <v>2019</v>
       </c>
       <c r="C1">
@@ -12475,104 +12823,4374 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" cm="1">
-        <f t="array" ref="B2:AG2">TRANSPOSE('Pop Projection'!B7:B38)</f>
-        <v>37589262</v>
-      </c>
-      <c r="C2">
-        <v>37912000</v>
-      </c>
-      <c r="D2">
-        <v>38231000</v>
-      </c>
-      <c r="E2">
-        <v>38546000</v>
-      </c>
-      <c r="F2">
-        <v>38858000</v>
-      </c>
-      <c r="G2">
-        <v>39166000</v>
-      </c>
-      <c r="H2">
-        <v>39471000</v>
-      </c>
-      <c r="I2">
-        <v>39772000</v>
-      </c>
-      <c r="J2">
-        <v>40068000</v>
-      </c>
-      <c r="K2">
-        <v>40358000</v>
-      </c>
-      <c r="L2">
-        <v>40643000</v>
-      </c>
-      <c r="M2">
-        <v>40922000</v>
-      </c>
-      <c r="N2">
-        <v>41197000</v>
-      </c>
-      <c r="O2">
-        <v>41465000</v>
-      </c>
-      <c r="P2">
-        <v>41727000</v>
-      </c>
-      <c r="Q2">
-        <v>41981000</v>
-      </c>
-      <c r="R2">
-        <v>42228000</v>
-      </c>
-      <c r="S2">
-        <v>42467000</v>
-      </c>
-      <c r="T2">
-        <v>42699000</v>
-      </c>
-      <c r="U2">
-        <v>42926000</v>
-      </c>
-      <c r="V2">
-        <v>43146000</v>
-      </c>
-      <c r="W2">
-        <v>43361000</v>
-      </c>
-      <c r="X2">
-        <v>43570000</v>
-      </c>
-      <c r="Y2">
-        <v>43776000</v>
-      </c>
-      <c r="Z2">
-        <v>43977000</v>
-      </c>
-      <c r="AA2">
-        <v>44177000</v>
-      </c>
-      <c r="AB2">
-        <v>44375000</v>
-      </c>
-      <c r="AC2">
-        <v>44574000</v>
-      </c>
-      <c r="AD2">
-        <v>44775000</v>
-      </c>
-      <c r="AE2">
-        <v>44977000</v>
-      </c>
-      <c r="AF2">
-        <v>45182000</v>
-      </c>
-      <c r="AG2">
-        <v>45385000</v>
+        <v>192</v>
+      </c>
+      <c r="B2" s="19">
+        <v>6729980000</v>
+      </c>
+      <c r="C2" s="19">
+        <v>6729980000</v>
+      </c>
+      <c r="D2" s="19">
+        <v>6845950000</v>
+      </c>
+      <c r="E2" s="19">
+        <v>6960340000</v>
+      </c>
+      <c r="F2" s="19">
+        <v>7072960000</v>
+      </c>
+      <c r="G2" s="19">
+        <v>7183610000</v>
+      </c>
+      <c r="H2" s="19">
+        <v>7292070000</v>
+      </c>
+      <c r="I2" s="19">
+        <v>7398160000</v>
+      </c>
+      <c r="J2" s="19">
+        <v>7501680000</v>
+      </c>
+      <c r="K2" s="19">
+        <v>7606950000</v>
+      </c>
+      <c r="L2" s="19">
+        <v>7714000000</v>
+      </c>
+      <c r="M2" s="19">
+        <v>7822860000</v>
+      </c>
+      <c r="N2" s="19">
+        <v>7933570000</v>
+      </c>
+      <c r="O2" s="19">
+        <v>8046140000</v>
+      </c>
+      <c r="P2" s="19">
+        <v>8160620000</v>
+      </c>
+      <c r="Q2" s="19">
+        <v>8277040000</v>
+      </c>
+      <c r="R2" s="19">
+        <v>8395420000</v>
+      </c>
+      <c r="S2" s="19">
+        <v>8515810000</v>
+      </c>
+      <c r="T2" s="19">
+        <v>8638240000</v>
+      </c>
+      <c r="U2" s="19">
+        <v>8762730000</v>
+      </c>
+      <c r="V2" s="19">
+        <v>8889330000</v>
+      </c>
+      <c r="W2" s="19">
+        <v>9018080000</v>
+      </c>
+      <c r="X2" s="19">
+        <v>9149000000</v>
+      </c>
+      <c r="Y2" s="19">
+        <v>9282130000</v>
+      </c>
+      <c r="Z2" s="19">
+        <v>9417520000</v>
+      </c>
+      <c r="AA2" s="19">
+        <v>9555200000</v>
+      </c>
+      <c r="AB2" s="19">
+        <v>9695210000</v>
+      </c>
+      <c r="AC2" s="19">
+        <v>9837580000</v>
+      </c>
+      <c r="AD2" s="19">
+        <v>9982370000</v>
+      </c>
+      <c r="AE2" s="19">
+        <v>10129600000</v>
+      </c>
+      <c r="AF2" s="19">
+        <v>10279300000</v>
+      </c>
+      <c r="AG2" s="19">
+        <v>10431600000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" s="19">
+        <v>288260000</v>
+      </c>
+      <c r="C3" s="19">
+        <v>288260000</v>
+      </c>
+      <c r="D3" s="19">
+        <v>285684000</v>
+      </c>
+      <c r="E3" s="19">
+        <v>283488000</v>
+      </c>
+      <c r="F3" s="19">
+        <v>281661000</v>
+      </c>
+      <c r="G3" s="19">
+        <v>280192000</v>
+      </c>
+      <c r="H3" s="19">
+        <v>279074000</v>
+      </c>
+      <c r="I3" s="19">
+        <v>278302000</v>
+      </c>
+      <c r="J3" s="19">
+        <v>277872000</v>
+      </c>
+      <c r="K3" s="19">
+        <v>277442000</v>
+      </c>
+      <c r="L3" s="19">
+        <v>277013000</v>
+      </c>
+      <c r="M3" s="19">
+        <v>276585000</v>
+      </c>
+      <c r="N3" s="19">
+        <v>276157000</v>
+      </c>
+      <c r="O3" s="19">
+        <v>275731000</v>
+      </c>
+      <c r="P3" s="19">
+        <v>275305000</v>
+      </c>
+      <c r="Q3" s="19">
+        <v>274880000</v>
+      </c>
+      <c r="R3" s="19">
+        <v>274456000</v>
+      </c>
+      <c r="S3" s="19">
+        <v>274033000</v>
+      </c>
+      <c r="T3" s="19">
+        <v>273611000</v>
+      </c>
+      <c r="U3" s="19">
+        <v>273190000</v>
+      </c>
+      <c r="V3" s="19">
+        <v>272769000</v>
+      </c>
+      <c r="W3" s="19">
+        <v>272349000</v>
+      </c>
+      <c r="X3" s="19">
+        <v>271930000</v>
+      </c>
+      <c r="Y3" s="19">
+        <v>271512000</v>
+      </c>
+      <c r="Z3" s="19">
+        <v>271095000</v>
+      </c>
+      <c r="AA3" s="19">
+        <v>270679000</v>
+      </c>
+      <c r="AB3" s="19">
+        <v>270263000</v>
+      </c>
+      <c r="AC3" s="19">
+        <v>269849000</v>
+      </c>
+      <c r="AD3" s="19">
+        <v>269435000</v>
+      </c>
+      <c r="AE3" s="19">
+        <v>269022000</v>
+      </c>
+      <c r="AF3" s="19">
+        <v>268610000</v>
+      </c>
+      <c r="AG3" s="19">
+        <v>268198000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" s="19">
+        <v>14972000000</v>
+      </c>
+      <c r="C4" s="19">
+        <v>14972000000</v>
+      </c>
+      <c r="D4" s="19">
+        <v>15620700000</v>
+      </c>
+      <c r="E4" s="19">
+        <v>16263800000</v>
+      </c>
+      <c r="F4" s="19">
+        <v>16897100000</v>
+      </c>
+      <c r="G4" s="19">
+        <v>17516400000</v>
+      </c>
+      <c r="H4" s="19">
+        <v>18117200000</v>
+      </c>
+      <c r="I4" s="19">
+        <v>18695100000</v>
+      </c>
+      <c r="J4" s="19">
+        <v>19245900000</v>
+      </c>
+      <c r="K4" s="19">
+        <v>19815400000</v>
+      </c>
+      <c r="L4" s="19">
+        <v>20404300000</v>
+      </c>
+      <c r="M4" s="19">
+        <v>21013100000</v>
+      </c>
+      <c r="N4" s="19">
+        <v>21642700000</v>
+      </c>
+      <c r="O4" s="19">
+        <v>22293700000</v>
+      </c>
+      <c r="P4" s="19">
+        <v>22966800000</v>
+      </c>
+      <c r="Q4" s="19">
+        <v>23662800000</v>
+      </c>
+      <c r="R4" s="19">
+        <v>24382500000</v>
+      </c>
+      <c r="S4" s="19">
+        <v>25126600000</v>
+      </c>
+      <c r="T4" s="19">
+        <v>25896000000</v>
+      </c>
+      <c r="U4" s="19">
+        <v>26691600000</v>
+      </c>
+      <c r="V4" s="19">
+        <v>27514300000</v>
+      </c>
+      <c r="W4" s="19">
+        <v>28364900000</v>
+      </c>
+      <c r="X4" s="19">
+        <v>29244400000</v>
+      </c>
+      <c r="Y4" s="19">
+        <v>30153800000</v>
+      </c>
+      <c r="Z4" s="19">
+        <v>31094200000</v>
+      </c>
+      <c r="AA4" s="19">
+        <v>32066500000</v>
+      </c>
+      <c r="AB4" s="19">
+        <v>33071900000</v>
+      </c>
+      <c r="AC4" s="19">
+        <v>34111500000</v>
+      </c>
+      <c r="AD4" s="19">
+        <v>35186400000</v>
+      </c>
+      <c r="AE4" s="19">
+        <v>36297900000</v>
+      </c>
+      <c r="AF4" s="19">
+        <v>37447100000</v>
+      </c>
+      <c r="AG4" s="19">
+        <v>38635500000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" s="19">
+        <v>4112800000</v>
+      </c>
+      <c r="C5" s="19">
+        <v>4112800000</v>
+      </c>
+      <c r="D5" s="19">
+        <v>4074970000</v>
+      </c>
+      <c r="E5" s="19">
+        <v>4049120000</v>
+      </c>
+      <c r="F5" s="19">
+        <v>4034930000</v>
+      </c>
+      <c r="G5" s="19">
+        <v>4032180000</v>
+      </c>
+      <c r="H5" s="19">
+        <v>4040820000</v>
+      </c>
+      <c r="I5" s="19">
+        <v>4060900000</v>
+      </c>
+      <c r="J5" s="19">
+        <v>4092590000</v>
+      </c>
+      <c r="K5" s="19">
+        <v>4124600000</v>
+      </c>
+      <c r="L5" s="19">
+        <v>4156930000</v>
+      </c>
+      <c r="M5" s="19">
+        <v>4189580000</v>
+      </c>
+      <c r="N5" s="19">
+        <v>4222560000</v>
+      </c>
+      <c r="O5" s="19">
+        <v>4255880000</v>
+      </c>
+      <c r="P5" s="19">
+        <v>4289520000</v>
+      </c>
+      <c r="Q5" s="19">
+        <v>4323510000</v>
+      </c>
+      <c r="R5" s="19">
+        <v>4357840000</v>
+      </c>
+      <c r="S5" s="19">
+        <v>4392510000</v>
+      </c>
+      <c r="T5" s="19">
+        <v>4427530000</v>
+      </c>
+      <c r="U5" s="19">
+        <v>4462900000</v>
+      </c>
+      <c r="V5" s="19">
+        <v>4498630000</v>
+      </c>
+      <c r="W5" s="19">
+        <v>4534720000</v>
+      </c>
+      <c r="X5" s="19">
+        <v>4571170000</v>
+      </c>
+      <c r="Y5" s="19">
+        <v>4607980000</v>
+      </c>
+      <c r="Z5" s="19">
+        <v>4645170000</v>
+      </c>
+      <c r="AA5" s="19">
+        <v>4682730000</v>
+      </c>
+      <c r="AB5" s="19">
+        <v>4720660000</v>
+      </c>
+      <c r="AC5" s="19">
+        <v>4758980000</v>
+      </c>
+      <c r="AD5" s="19">
+        <v>4797680000</v>
+      </c>
+      <c r="AE5" s="19">
+        <v>4836770000</v>
+      </c>
+      <c r="AF5" s="19">
+        <v>4876250000</v>
+      </c>
+      <c r="AG5" s="19">
+        <v>4916130000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" s="19">
+        <v>5573750000</v>
+      </c>
+      <c r="C6" s="19">
+        <v>5573750000</v>
+      </c>
+      <c r="D6" s="19">
+        <v>5588250000</v>
+      </c>
+      <c r="E6" s="19">
+        <v>5621780000</v>
+      </c>
+      <c r="F6" s="19">
+        <v>5674680000</v>
+      </c>
+      <c r="G6" s="19">
+        <v>5747560000</v>
+      </c>
+      <c r="H6" s="19">
+        <v>5841280000</v>
+      </c>
+      <c r="I6" s="19">
+        <v>5956980000</v>
+      </c>
+      <c r="J6" s="19">
+        <v>6096090000</v>
+      </c>
+      <c r="K6" s="19">
+        <v>6239230000</v>
+      </c>
+      <c r="L6" s="19">
+        <v>6386530000</v>
+      </c>
+      <c r="M6" s="19">
+        <v>6538100000</v>
+      </c>
+      <c r="N6" s="19">
+        <v>6694070000</v>
+      </c>
+      <c r="O6" s="19">
+        <v>6854550000</v>
+      </c>
+      <c r="P6" s="19">
+        <v>7019700000</v>
+      </c>
+      <c r="Q6" s="19">
+        <v>7189630000</v>
+      </c>
+      <c r="R6" s="19">
+        <v>7364490000</v>
+      </c>
+      <c r="S6" s="19">
+        <v>7544420000</v>
+      </c>
+      <c r="T6" s="19">
+        <v>7729560000</v>
+      </c>
+      <c r="U6" s="19">
+        <v>7920080000</v>
+      </c>
+      <c r="V6" s="19">
+        <v>8116120000</v>
+      </c>
+      <c r="W6" s="19">
+        <v>8317850000</v>
+      </c>
+      <c r="X6" s="19">
+        <v>8525430000</v>
+      </c>
+      <c r="Y6" s="19">
+        <v>8739030000</v>
+      </c>
+      <c r="Z6" s="19">
+        <v>8958820000</v>
+      </c>
+      <c r="AA6" s="19">
+        <v>9184980000</v>
+      </c>
+      <c r="AB6" s="19">
+        <v>9417710000</v>
+      </c>
+      <c r="AC6" s="19">
+        <v>9657180000</v>
+      </c>
+      <c r="AD6" s="19">
+        <v>9903600000</v>
+      </c>
+      <c r="AE6" s="19">
+        <v>10157200000</v>
+      </c>
+      <c r="AF6" s="19">
+        <v>10418100000</v>
+      </c>
+      <c r="AG6" s="19">
+        <v>10686600000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" s="19">
+        <v>14518900000</v>
+      </c>
+      <c r="C7" s="19">
+        <v>14518900000</v>
+      </c>
+      <c r="D7" s="19">
+        <v>14644100000</v>
+      </c>
+      <c r="E7" s="19">
+        <v>14787800000</v>
+      </c>
+      <c r="F7" s="19">
+        <v>14950800000</v>
+      </c>
+      <c r="G7" s="19">
+        <v>15133700000</v>
+      </c>
+      <c r="H7" s="19">
+        <v>15337300000</v>
+      </c>
+      <c r="I7" s="19">
+        <v>15562600000</v>
+      </c>
+      <c r="J7" s="19">
+        <v>15810500000</v>
+      </c>
+      <c r="K7" s="19">
+        <v>16063300000</v>
+      </c>
+      <c r="L7" s="19">
+        <v>16321000000</v>
+      </c>
+      <c r="M7" s="19">
+        <v>16583800000</v>
+      </c>
+      <c r="N7" s="19">
+        <v>16851700000</v>
+      </c>
+      <c r="O7" s="19">
+        <v>17124900000</v>
+      </c>
+      <c r="P7" s="19">
+        <v>17403400000</v>
+      </c>
+      <c r="Q7" s="19">
+        <v>17687400000</v>
+      </c>
+      <c r="R7" s="19">
+        <v>17976900000</v>
+      </c>
+      <c r="S7" s="19">
+        <v>18272200000</v>
+      </c>
+      <c r="T7" s="19">
+        <v>18573100000</v>
+      </c>
+      <c r="U7" s="19">
+        <v>18880000000</v>
+      </c>
+      <c r="V7" s="19">
+        <v>19192900000</v>
+      </c>
+      <c r="W7" s="19">
+        <v>19511900000</v>
+      </c>
+      <c r="X7" s="19">
+        <v>19837200000</v>
+      </c>
+      <c r="Y7" s="19">
+        <v>20168800000</v>
+      </c>
+      <c r="Z7" s="19">
+        <v>20507000000</v>
+      </c>
+      <c r="AA7" s="19">
+        <v>20851700000</v>
+      </c>
+      <c r="AB7" s="19">
+        <v>21203200000</v>
+      </c>
+      <c r="AC7" s="19">
+        <v>21561600000</v>
+      </c>
+      <c r="AD7" s="19">
+        <v>21927000000</v>
+      </c>
+      <c r="AE7" s="19">
+        <v>22299500000</v>
+      </c>
+      <c r="AF7" s="19">
+        <v>22679400000</v>
+      </c>
+      <c r="AG7" s="19">
+        <v>23066700000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8" s="19">
+        <v>816461000</v>
+      </c>
+      <c r="C8" s="19">
+        <v>816461000</v>
+      </c>
+      <c r="D8" s="19">
+        <v>811819000</v>
+      </c>
+      <c r="E8" s="19">
+        <v>805948000</v>
+      </c>
+      <c r="F8" s="19">
+        <v>798879000</v>
+      </c>
+      <c r="G8" s="19">
+        <v>790652000</v>
+      </c>
+      <c r="H8" s="19">
+        <v>781312000</v>
+      </c>
+      <c r="I8" s="19">
+        <v>770910000</v>
+      </c>
+      <c r="J8" s="19">
+        <v>759504000</v>
+      </c>
+      <c r="K8" s="19">
+        <v>748315000</v>
+      </c>
+      <c r="L8" s="19">
+        <v>737340000</v>
+      </c>
+      <c r="M8" s="19">
+        <v>726574000</v>
+      </c>
+      <c r="N8" s="19">
+        <v>716014000</v>
+      </c>
+      <c r="O8" s="19">
+        <v>705655000</v>
+      </c>
+      <c r="P8" s="19">
+        <v>695493000</v>
+      </c>
+      <c r="Q8" s="19">
+        <v>685525000</v>
+      </c>
+      <c r="R8" s="19">
+        <v>675748000</v>
+      </c>
+      <c r="S8" s="19">
+        <v>666156000</v>
+      </c>
+      <c r="T8" s="19">
+        <v>656748000</v>
+      </c>
+      <c r="U8" s="19">
+        <v>647519000</v>
+      </c>
+      <c r="V8" s="19">
+        <v>638466000</v>
+      </c>
+      <c r="W8" s="19">
+        <v>629586000</v>
+      </c>
+      <c r="X8" s="19">
+        <v>620875000</v>
+      </c>
+      <c r="Y8" s="19">
+        <v>612330000</v>
+      </c>
+      <c r="Z8" s="19">
+        <v>603948000</v>
+      </c>
+      <c r="AA8" s="19">
+        <v>595726000</v>
+      </c>
+      <c r="AB8" s="19">
+        <v>587661000</v>
+      </c>
+      <c r="AC8" s="19">
+        <v>579749000</v>
+      </c>
+      <c r="AD8" s="19">
+        <v>571989000</v>
+      </c>
+      <c r="AE8" s="19">
+        <v>564376000</v>
+      </c>
+      <c r="AF8" s="19">
+        <v>556909000</v>
+      </c>
+      <c r="AG8" s="19">
+        <v>549584000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B9" s="19">
+        <v>3967450000</v>
+      </c>
+      <c r="C9" s="19">
+        <v>3967450000</v>
+      </c>
+      <c r="D9" s="19">
+        <v>4036710000</v>
+      </c>
+      <c r="E9" s="19">
+        <v>4099270000</v>
+      </c>
+      <c r="F9" s="19">
+        <v>4154680000</v>
+      </c>
+      <c r="G9" s="19">
+        <v>4202530000</v>
+      </c>
+      <c r="H9" s="19">
+        <v>4242450000</v>
+      </c>
+      <c r="I9" s="19">
+        <v>4274130000</v>
+      </c>
+      <c r="J9" s="19">
+        <v>4297320000</v>
+      </c>
+      <c r="K9" s="19">
+        <v>4320670000</v>
+      </c>
+      <c r="L9" s="19">
+        <v>4344170000</v>
+      </c>
+      <c r="M9" s="19">
+        <v>4367820000</v>
+      </c>
+      <c r="N9" s="19">
+        <v>4391630000</v>
+      </c>
+      <c r="O9" s="19">
+        <v>4415600000</v>
+      </c>
+      <c r="P9" s="19">
+        <v>4439720000</v>
+      </c>
+      <c r="Q9" s="19">
+        <v>4464000000</v>
+      </c>
+      <c r="R9" s="19">
+        <v>4488440000</v>
+      </c>
+      <c r="S9" s="19">
+        <v>4513040000</v>
+      </c>
+      <c r="T9" s="19">
+        <v>4537810000</v>
+      </c>
+      <c r="U9" s="19">
+        <v>4562740000</v>
+      </c>
+      <c r="V9" s="19">
+        <v>4587830000</v>
+      </c>
+      <c r="W9" s="19">
+        <v>4613080000</v>
+      </c>
+      <c r="X9" s="19">
+        <v>4638500000</v>
+      </c>
+      <c r="Y9" s="19">
+        <v>4664090000</v>
+      </c>
+      <c r="Z9" s="19">
+        <v>4689850000</v>
+      </c>
+      <c r="AA9" s="19">
+        <v>4715780000</v>
+      </c>
+      <c r="AB9" s="19">
+        <v>4741870000</v>
+      </c>
+      <c r="AC9" s="19">
+        <v>4768140000</v>
+      </c>
+      <c r="AD9" s="19">
+        <v>4794580000</v>
+      </c>
+      <c r="AE9" s="19">
+        <v>4821200000</v>
+      </c>
+      <c r="AF9" s="19">
+        <v>4847990000</v>
+      </c>
+      <c r="AG9" s="19">
+        <v>4874960000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B10" s="19">
+        <v>5156850000</v>
+      </c>
+      <c r="C10" s="19">
+        <v>5156850000</v>
+      </c>
+      <c r="D10" s="19">
+        <v>5160650000</v>
+      </c>
+      <c r="E10" s="19">
+        <v>5166660000</v>
+      </c>
+      <c r="F10" s="19">
+        <v>5174880000</v>
+      </c>
+      <c r="G10" s="19">
+        <v>5185320000</v>
+      </c>
+      <c r="H10" s="19">
+        <v>5198000000</v>
+      </c>
+      <c r="I10" s="19">
+        <v>5212940000</v>
+      </c>
+      <c r="J10" s="19">
+        <v>5230170000</v>
+      </c>
+      <c r="K10" s="19">
+        <v>5247470000</v>
+      </c>
+      <c r="L10" s="19">
+        <v>5264830000</v>
+      </c>
+      <c r="M10" s="19">
+        <v>5282280000</v>
+      </c>
+      <c r="N10" s="19">
+        <v>5299790000</v>
+      </c>
+      <c r="O10" s="19">
+        <v>5317370000</v>
+      </c>
+      <c r="P10" s="19">
+        <v>5335030000</v>
+      </c>
+      <c r="Q10" s="19">
+        <v>5352770000</v>
+      </c>
+      <c r="R10" s="19">
+        <v>5370570000</v>
+      </c>
+      <c r="S10" s="19">
+        <v>5388450000</v>
+      </c>
+      <c r="T10" s="19">
+        <v>5406410000</v>
+      </c>
+      <c r="U10" s="19">
+        <v>5424430000</v>
+      </c>
+      <c r="V10" s="19">
+        <v>5442540000</v>
+      </c>
+      <c r="W10" s="19">
+        <v>5460720000</v>
+      </c>
+      <c r="X10" s="19">
+        <v>5478970000</v>
+      </c>
+      <c r="Y10" s="19">
+        <v>5497300000</v>
+      </c>
+      <c r="Z10" s="19">
+        <v>5515710000</v>
+      </c>
+      <c r="AA10" s="19">
+        <v>5534190000</v>
+      </c>
+      <c r="AB10" s="19">
+        <v>5552750000</v>
+      </c>
+      <c r="AC10" s="19">
+        <v>5571390000</v>
+      </c>
+      <c r="AD10" s="19">
+        <v>5590100000</v>
+      </c>
+      <c r="AE10" s="19">
+        <v>5608890000</v>
+      </c>
+      <c r="AF10" s="19">
+        <v>5627760000</v>
+      </c>
+      <c r="AG10" s="19">
+        <v>5646710000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B11" s="19">
+        <v>855056000</v>
+      </c>
+      <c r="C11" s="19">
+        <v>855056000</v>
+      </c>
+      <c r="D11" s="19">
+        <v>859766000</v>
+      </c>
+      <c r="E11" s="19">
+        <v>864439000</v>
+      </c>
+      <c r="F11" s="19">
+        <v>869074000</v>
+      </c>
+      <c r="G11" s="19">
+        <v>873670000</v>
+      </c>
+      <c r="H11" s="19">
+        <v>878226000</v>
+      </c>
+      <c r="I11" s="19">
+        <v>882740000</v>
+      </c>
+      <c r="J11" s="19">
+        <v>887212000</v>
+      </c>
+      <c r="K11" s="19">
+        <v>891712000</v>
+      </c>
+      <c r="L11" s="19">
+        <v>896240000</v>
+      </c>
+      <c r="M11" s="19">
+        <v>900796000</v>
+      </c>
+      <c r="N11" s="19">
+        <v>905382000</v>
+      </c>
+      <c r="O11" s="19">
+        <v>909996000</v>
+      </c>
+      <c r="P11" s="19">
+        <v>914639000</v>
+      </c>
+      <c r="Q11" s="19">
+        <v>919311000</v>
+      </c>
+      <c r="R11" s="19">
+        <v>924013000</v>
+      </c>
+      <c r="S11" s="19">
+        <v>928744000</v>
+      </c>
+      <c r="T11" s="19">
+        <v>933506000</v>
+      </c>
+      <c r="U11" s="19">
+        <v>938297000</v>
+      </c>
+      <c r="V11" s="19">
+        <v>943118000</v>
+      </c>
+      <c r="W11" s="19">
+        <v>947970000</v>
+      </c>
+      <c r="X11" s="19">
+        <v>952852000</v>
+      </c>
+      <c r="Y11" s="19">
+        <v>957765000</v>
+      </c>
+      <c r="Z11" s="19">
+        <v>962709000</v>
+      </c>
+      <c r="AA11" s="19">
+        <v>967684000</v>
+      </c>
+      <c r="AB11" s="19">
+        <v>972690000</v>
+      </c>
+      <c r="AC11" s="19">
+        <v>977728000</v>
+      </c>
+      <c r="AD11" s="19">
+        <v>982798000</v>
+      </c>
+      <c r="AE11" s="19">
+        <v>987899000</v>
+      </c>
+      <c r="AF11" s="19">
+        <v>993033000</v>
+      </c>
+      <c r="AG11" s="19">
+        <v>998198000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" s="19">
+        <v>2594690000</v>
+      </c>
+      <c r="C12" s="19">
+        <v>2594690000</v>
+      </c>
+      <c r="D12" s="19">
+        <v>2640490000</v>
+      </c>
+      <c r="E12" s="19">
+        <v>2686270000</v>
+      </c>
+      <c r="F12" s="19">
+        <v>2732000000</v>
+      </c>
+      <c r="G12" s="19">
+        <v>2777620000</v>
+      </c>
+      <c r="H12" s="19">
+        <v>2823080000</v>
+      </c>
+      <c r="I12" s="19">
+        <v>2868350000</v>
+      </c>
+      <c r="J12" s="19">
+        <v>2913380000</v>
+      </c>
+      <c r="K12" s="19">
+        <v>2959260000</v>
+      </c>
+      <c r="L12" s="19">
+        <v>3006010000</v>
+      </c>
+      <c r="M12" s="19">
+        <v>3053640000</v>
+      </c>
+      <c r="N12" s="19">
+        <v>3102180000</v>
+      </c>
+      <c r="O12" s="19">
+        <v>3151630000</v>
+      </c>
+      <c r="P12" s="19">
+        <v>3202030000</v>
+      </c>
+      <c r="Q12" s="19">
+        <v>3253380000</v>
+      </c>
+      <c r="R12" s="19">
+        <v>3305700000</v>
+      </c>
+      <c r="S12" s="19">
+        <v>3359020000</v>
+      </c>
+      <c r="T12" s="19">
+        <v>3413340000</v>
+      </c>
+      <c r="U12" s="19">
+        <v>3468690000</v>
+      </c>
+      <c r="V12" s="19">
+        <v>3525100000</v>
+      </c>
+      <c r="W12" s="19">
+        <v>3582570000</v>
+      </c>
+      <c r="X12" s="19">
+        <v>3641130000</v>
+      </c>
+      <c r="Y12" s="19">
+        <v>3700800000</v>
+      </c>
+      <c r="Z12" s="19">
+        <v>3761600000</v>
+      </c>
+      <c r="AA12" s="19">
+        <v>3823560000</v>
+      </c>
+      <c r="AB12" s="19">
+        <v>3886680000</v>
+      </c>
+      <c r="AC12" s="19">
+        <v>3951010000</v>
+      </c>
+      <c r="AD12" s="19">
+        <v>4016550000</v>
+      </c>
+      <c r="AE12" s="19">
+        <v>4083340000</v>
+      </c>
+      <c r="AF12" s="19">
+        <v>4151390000</v>
+      </c>
+      <c r="AG12" s="19">
+        <v>4220730000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>203</v>
+      </c>
+      <c r="B13" s="19">
+        <v>2227500000</v>
+      </c>
+      <c r="C13" s="19">
+        <v>2227500000</v>
+      </c>
+      <c r="D13" s="19">
+        <v>2225990000</v>
+      </c>
+      <c r="E13" s="19">
+        <v>2230010000</v>
+      </c>
+      <c r="F13" s="19">
+        <v>2239570000</v>
+      </c>
+      <c r="G13" s="19">
+        <v>2254740000</v>
+      </c>
+      <c r="H13" s="19">
+        <v>2275660000</v>
+      </c>
+      <c r="I13" s="19">
+        <v>2302500000</v>
+      </c>
+      <c r="J13" s="19">
+        <v>2335500000</v>
+      </c>
+      <c r="K13" s="19">
+        <v>2369100000</v>
+      </c>
+      <c r="L13" s="19">
+        <v>2403300000</v>
+      </c>
+      <c r="M13" s="19">
+        <v>2438110000</v>
+      </c>
+      <c r="N13" s="19">
+        <v>2473550000</v>
+      </c>
+      <c r="O13" s="19">
+        <v>2509630000</v>
+      </c>
+      <c r="P13" s="19">
+        <v>2546360000</v>
+      </c>
+      <c r="Q13" s="19">
+        <v>2583750000</v>
+      </c>
+      <c r="R13" s="19">
+        <v>2621820000</v>
+      </c>
+      <c r="S13" s="19">
+        <v>2660560000</v>
+      </c>
+      <c r="T13" s="19">
+        <v>2700010000</v>
+      </c>
+      <c r="U13" s="19">
+        <v>2740160000</v>
+      </c>
+      <c r="V13" s="19">
+        <v>2781040000</v>
+      </c>
+      <c r="W13" s="19">
+        <v>2822660000</v>
+      </c>
+      <c r="X13" s="19">
+        <v>2865020000</v>
+      </c>
+      <c r="Y13" s="19">
+        <v>2908150000</v>
+      </c>
+      <c r="Z13" s="19">
+        <v>2952050000</v>
+      </c>
+      <c r="AA13" s="19">
+        <v>2996740000</v>
+      </c>
+      <c r="AB13" s="19">
+        <v>3042240000</v>
+      </c>
+      <c r="AC13" s="19">
+        <v>3088560000</v>
+      </c>
+      <c r="AD13" s="19">
+        <v>3135700000</v>
+      </c>
+      <c r="AE13" s="19">
+        <v>3183700000</v>
+      </c>
+      <c r="AF13" s="19">
+        <v>3232570000</v>
+      </c>
+      <c r="AG13" s="19">
+        <v>3282310000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>204</v>
+      </c>
+      <c r="B14" s="19">
+        <v>4088330000</v>
+      </c>
+      <c r="C14" s="19">
+        <v>4088330000</v>
+      </c>
+      <c r="D14" s="19">
+        <v>4147580000</v>
+      </c>
+      <c r="E14" s="19">
+        <v>4207730000</v>
+      </c>
+      <c r="F14" s="19">
+        <v>4268820000</v>
+      </c>
+      <c r="G14" s="19">
+        <v>4330850000</v>
+      </c>
+      <c r="H14" s="19">
+        <v>4393820000</v>
+      </c>
+      <c r="I14" s="19">
+        <v>4457760000</v>
+      </c>
+      <c r="J14" s="19">
+        <v>4522680000</v>
+      </c>
+      <c r="K14" s="19">
+        <v>4588740000</v>
+      </c>
+      <c r="L14" s="19">
+        <v>4655970000</v>
+      </c>
+      <c r="M14" s="19">
+        <v>4724390000</v>
+      </c>
+      <c r="N14" s="19">
+        <v>4794020000</v>
+      </c>
+      <c r="O14" s="19">
+        <v>4864880000</v>
+      </c>
+      <c r="P14" s="19">
+        <v>4937000000</v>
+      </c>
+      <c r="Q14" s="19">
+        <v>5010390000</v>
+      </c>
+      <c r="R14" s="19">
+        <v>5085080000</v>
+      </c>
+      <c r="S14" s="19">
+        <v>5161090000</v>
+      </c>
+      <c r="T14" s="19">
+        <v>5238450000</v>
+      </c>
+      <c r="U14" s="19">
+        <v>5317170000</v>
+      </c>
+      <c r="V14" s="19">
+        <v>5397290000</v>
+      </c>
+      <c r="W14" s="19">
+        <v>5478830000</v>
+      </c>
+      <c r="X14" s="19">
+        <v>5561810000</v>
+      </c>
+      <c r="Y14" s="19">
+        <v>5646260000</v>
+      </c>
+      <c r="Z14" s="19">
+        <v>5732200000</v>
+      </c>
+      <c r="AA14" s="19">
+        <v>5819660000</v>
+      </c>
+      <c r="AB14" s="19">
+        <v>5908670000</v>
+      </c>
+      <c r="AC14" s="19">
+        <v>5999260000</v>
+      </c>
+      <c r="AD14" s="19">
+        <v>6091450000</v>
+      </c>
+      <c r="AE14" s="19">
+        <v>6185260000</v>
+      </c>
+      <c r="AF14" s="19">
+        <v>6280740000</v>
+      </c>
+      <c r="AG14" s="19">
+        <v>6377910000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>205</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>206</v>
+      </c>
+      <c r="B16" s="19">
+        <v>2022590000</v>
+      </c>
+      <c r="C16" s="19">
+        <v>2022590000</v>
+      </c>
+      <c r="D16" s="19">
+        <v>2055570000</v>
+      </c>
+      <c r="E16" s="19">
+        <v>2087580000</v>
+      </c>
+      <c r="F16" s="19">
+        <v>2118550000</v>
+      </c>
+      <c r="G16" s="19">
+        <v>2148390000</v>
+      </c>
+      <c r="H16" s="19">
+        <v>2177030000</v>
+      </c>
+      <c r="I16" s="19">
+        <v>2204390000</v>
+      </c>
+      <c r="J16" s="19">
+        <v>2230400000</v>
+      </c>
+      <c r="K16" s="19">
+        <v>2256780000</v>
+      </c>
+      <c r="L16" s="19">
+        <v>2283540000</v>
+      </c>
+      <c r="M16" s="19">
+        <v>2310680000</v>
+      </c>
+      <c r="N16" s="19">
+        <v>2338210000</v>
+      </c>
+      <c r="O16" s="19">
+        <v>2366130000</v>
+      </c>
+      <c r="P16" s="19">
+        <v>2394450000</v>
+      </c>
+      <c r="Q16" s="19">
+        <v>2423180000</v>
+      </c>
+      <c r="R16" s="19">
+        <v>2452320000</v>
+      </c>
+      <c r="S16" s="19">
+        <v>2481870000</v>
+      </c>
+      <c r="T16" s="19">
+        <v>2511850000</v>
+      </c>
+      <c r="U16" s="19">
+        <v>2542250000</v>
+      </c>
+      <c r="V16" s="19">
+        <v>2573090000</v>
+      </c>
+      <c r="W16" s="19">
+        <v>2604370000</v>
+      </c>
+      <c r="X16" s="19">
+        <v>2636100000</v>
+      </c>
+      <c r="Y16" s="19">
+        <v>2668280000</v>
+      </c>
+      <c r="Z16" s="19">
+        <v>2700930000</v>
+      </c>
+      <c r="AA16" s="19">
+        <v>2734030000</v>
+      </c>
+      <c r="AB16" s="19">
+        <v>2767620000</v>
+      </c>
+      <c r="AC16" s="19">
+        <v>2801680000</v>
+      </c>
+      <c r="AD16" s="19">
+        <v>2836230000</v>
+      </c>
+      <c r="AE16" s="19">
+        <v>2871270000</v>
+      </c>
+      <c r="AF16" s="19">
+        <v>2906820000</v>
+      </c>
+      <c r="AG16" s="19">
+        <v>2942870000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>207</v>
+      </c>
+      <c r="B17" s="19">
+        <v>2530360000</v>
+      </c>
+      <c r="C17" s="19">
+        <v>2530360000</v>
+      </c>
+      <c r="D17" s="19">
+        <v>2562920000</v>
+      </c>
+      <c r="E17" s="19">
+        <v>2591750000</v>
+      </c>
+      <c r="F17" s="19">
+        <v>2616670000</v>
+      </c>
+      <c r="G17" s="19">
+        <v>2637520000</v>
+      </c>
+      <c r="H17" s="19">
+        <v>2654160000</v>
+      </c>
+      <c r="I17" s="19">
+        <v>2666490000</v>
+      </c>
+      <c r="J17" s="19">
+        <v>2674430000</v>
+      </c>
+      <c r="K17" s="19">
+        <v>2682390000</v>
+      </c>
+      <c r="L17" s="19">
+        <v>2690380000</v>
+      </c>
+      <c r="M17" s="19">
+        <v>2698400000</v>
+      </c>
+      <c r="N17" s="19">
+        <v>2706450000</v>
+      </c>
+      <c r="O17" s="19">
+        <v>2714520000</v>
+      </c>
+      <c r="P17" s="19">
+        <v>2722630000</v>
+      </c>
+      <c r="Q17" s="19">
+        <v>2730770000</v>
+      </c>
+      <c r="R17" s="19">
+        <v>2738930000</v>
+      </c>
+      <c r="S17" s="19">
+        <v>2747130000</v>
+      </c>
+      <c r="T17" s="19">
+        <v>2755360000</v>
+      </c>
+      <c r="U17" s="19">
+        <v>2763610000</v>
+      </c>
+      <c r="V17" s="19">
+        <v>2771900000</v>
+      </c>
+      <c r="W17" s="19">
+        <v>2780220000</v>
+      </c>
+      <c r="X17" s="19">
+        <v>2788560000</v>
+      </c>
+      <c r="Y17" s="19">
+        <v>2796940000</v>
+      </c>
+      <c r="Z17" s="19">
+        <v>2805350000</v>
+      </c>
+      <c r="AA17" s="19">
+        <v>2813790000</v>
+      </c>
+      <c r="AB17" s="19">
+        <v>2822260000</v>
+      </c>
+      <c r="AC17" s="19">
+        <v>2830750000</v>
+      </c>
+      <c r="AD17" s="19">
+        <v>2839290000</v>
+      </c>
+      <c r="AE17" s="19">
+        <v>2847850000</v>
+      </c>
+      <c r="AF17" s="19">
+        <v>2856440000</v>
+      </c>
+      <c r="AG17" s="19">
+        <v>2865060000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>208</v>
+      </c>
+      <c r="B18" s="19">
+        <v>1576660000</v>
+      </c>
+      <c r="C18" s="19">
+        <v>1576660000</v>
+      </c>
+      <c r="D18" s="19">
+        <v>1600410000</v>
+      </c>
+      <c r="E18" s="19">
+        <v>1623030000</v>
+      </c>
+      <c r="F18" s="19">
+        <v>1644440000</v>
+      </c>
+      <c r="G18" s="19">
+        <v>1664550000</v>
+      </c>
+      <c r="H18" s="19">
+        <v>1683310000</v>
+      </c>
+      <c r="I18" s="19">
+        <v>1700640000</v>
+      </c>
+      <c r="J18" s="19">
+        <v>1716490000</v>
+      </c>
+      <c r="K18" s="19">
+        <v>1732510000</v>
+      </c>
+      <c r="L18" s="19">
+        <v>1748720000</v>
+      </c>
+      <c r="M18" s="19">
+        <v>1765110000</v>
+      </c>
+      <c r="N18" s="19">
+        <v>1781690000</v>
+      </c>
+      <c r="O18" s="19">
+        <v>1798450000</v>
+      </c>
+      <c r="P18" s="19">
+        <v>1815400000</v>
+      </c>
+      <c r="Q18" s="19">
+        <v>1832550000</v>
+      </c>
+      <c r="R18" s="19">
+        <v>1849890000</v>
+      </c>
+      <c r="S18" s="19">
+        <v>1867430000</v>
+      </c>
+      <c r="T18" s="19">
+        <v>1885160000</v>
+      </c>
+      <c r="U18" s="19">
+        <v>1903100000</v>
+      </c>
+      <c r="V18" s="19">
+        <v>1921240000</v>
+      </c>
+      <c r="W18" s="19">
+        <v>1939580000</v>
+      </c>
+      <c r="X18" s="19">
+        <v>1958140000</v>
+      </c>
+      <c r="Y18" s="19">
+        <v>1976900000</v>
+      </c>
+      <c r="Z18" s="19">
+        <v>1995870000</v>
+      </c>
+      <c r="AA18" s="19">
+        <v>2015060000</v>
+      </c>
+      <c r="AB18" s="19">
+        <v>2034470000</v>
+      </c>
+      <c r="AC18" s="19">
+        <v>2054100000</v>
+      </c>
+      <c r="AD18" s="19">
+        <v>2073950000</v>
+      </c>
+      <c r="AE18" s="19">
+        <v>2094030000</v>
+      </c>
+      <c r="AF18" s="19">
+        <v>2114330000</v>
+      </c>
+      <c r="AG18" s="19">
+        <v>2134860000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>209</v>
+      </c>
+      <c r="B19" s="19">
+        <v>8474040000</v>
+      </c>
+      <c r="C19" s="19">
+        <v>8474040000</v>
+      </c>
+      <c r="D19" s="19">
+        <v>8645610000</v>
+      </c>
+      <c r="E19" s="19">
+        <v>8806490000</v>
+      </c>
+      <c r="F19" s="19">
+        <v>8955720000</v>
+      </c>
+      <c r="G19" s="19">
+        <v>9092410000</v>
+      </c>
+      <c r="H19" s="19">
+        <v>9215720000</v>
+      </c>
+      <c r="I19" s="19">
+        <v>9324870000</v>
+      </c>
+      <c r="J19" s="19">
+        <v>9419180000</v>
+      </c>
+      <c r="K19" s="19">
+        <v>9514630000</v>
+      </c>
+      <c r="L19" s="19">
+        <v>9611250000</v>
+      </c>
+      <c r="M19" s="19">
+        <v>9709040000</v>
+      </c>
+      <c r="N19" s="19">
+        <v>9808020000</v>
+      </c>
+      <c r="O19" s="19">
+        <v>9908210000</v>
+      </c>
+      <c r="P19" s="19">
+        <v>10009600000</v>
+      </c>
+      <c r="Q19" s="19">
+        <v>10112300000</v>
+      </c>
+      <c r="R19" s="19">
+        <v>10216200000</v>
+      </c>
+      <c r="S19" s="19">
+        <v>10321300000</v>
+      </c>
+      <c r="T19" s="19">
+        <v>10427700000</v>
+      </c>
+      <c r="U19" s="19">
+        <v>10535500000</v>
+      </c>
+      <c r="V19" s="19">
+        <v>10644500000</v>
+      </c>
+      <c r="W19" s="19">
+        <v>10754900000</v>
+      </c>
+      <c r="X19" s="19">
+        <v>10866600000</v>
+      </c>
+      <c r="Y19" s="19">
+        <v>10979700000</v>
+      </c>
+      <c r="Z19" s="19">
+        <v>11094100000</v>
+      </c>
+      <c r="AA19" s="19">
+        <v>11210000000</v>
+      </c>
+      <c r="AB19" s="19">
+        <v>11327200000</v>
+      </c>
+      <c r="AC19" s="19">
+        <v>11445900000</v>
+      </c>
+      <c r="AD19" s="19">
+        <v>11566000000</v>
+      </c>
+      <c r="AE19" s="19">
+        <v>11687600000</v>
+      </c>
+      <c r="AF19" s="19">
+        <v>11810700000</v>
+      </c>
+      <c r="AG19" s="19">
+        <v>11935300000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>210</v>
+      </c>
+      <c r="B20" s="19">
+        <v>5241310000</v>
+      </c>
+      <c r="C20" s="19">
+        <v>5241310000</v>
+      </c>
+      <c r="D20" s="19">
+        <v>5324680000</v>
+      </c>
+      <c r="E20" s="19">
+        <v>5412670000</v>
+      </c>
+      <c r="F20" s="19">
+        <v>5505500000</v>
+      </c>
+      <c r="G20" s="19">
+        <v>5603400000</v>
+      </c>
+      <c r="H20" s="19">
+        <v>5706600000</v>
+      </c>
+      <c r="I20" s="19">
+        <v>5815370000</v>
+      </c>
+      <c r="J20" s="19">
+        <v>5929980000</v>
+      </c>
+      <c r="K20" s="19">
+        <v>6047320000</v>
+      </c>
+      <c r="L20" s="19">
+        <v>6167460000</v>
+      </c>
+      <c r="M20" s="19">
+        <v>6290470000</v>
+      </c>
+      <c r="N20" s="19">
+        <v>6416400000</v>
+      </c>
+      <c r="O20" s="19">
+        <v>6545340000</v>
+      </c>
+      <c r="P20" s="19">
+        <v>6677350000</v>
+      </c>
+      <c r="Q20" s="19">
+        <v>6812510000</v>
+      </c>
+      <c r="R20" s="19">
+        <v>6950900000</v>
+      </c>
+      <c r="S20" s="19">
+        <v>7092580000</v>
+      </c>
+      <c r="T20" s="19">
+        <v>7237630000</v>
+      </c>
+      <c r="U20" s="19">
+        <v>7386150000</v>
+      </c>
+      <c r="V20" s="19">
+        <v>7538210000</v>
+      </c>
+      <c r="W20" s="19">
+        <v>7693890000</v>
+      </c>
+      <c r="X20" s="19">
+        <v>7853280000</v>
+      </c>
+      <c r="Y20" s="19">
+        <v>8016470000</v>
+      </c>
+      <c r="Z20" s="19">
+        <v>8183550000</v>
+      </c>
+      <c r="AA20" s="19">
+        <v>8354620000</v>
+      </c>
+      <c r="AB20" s="19">
+        <v>8529760000</v>
+      </c>
+      <c r="AC20" s="19">
+        <v>8709080000</v>
+      </c>
+      <c r="AD20" s="19">
+        <v>8892680000</v>
+      </c>
+      <c r="AE20" s="19">
+        <v>9080650000</v>
+      </c>
+      <c r="AF20" s="19">
+        <v>9273100000</v>
+      </c>
+      <c r="AG20" s="19">
+        <v>9470140000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>211</v>
+      </c>
+      <c r="B21" s="19">
+        <v>2414470000</v>
+      </c>
+      <c r="C21" s="19">
+        <v>2414470000</v>
+      </c>
+      <c r="D21" s="19">
+        <v>2457480000</v>
+      </c>
+      <c r="E21" s="19">
+        <v>2499360000</v>
+      </c>
+      <c r="F21" s="19">
+        <v>2540010000</v>
+      </c>
+      <c r="G21" s="19">
+        <v>2579320000</v>
+      </c>
+      <c r="H21" s="19">
+        <v>2617180000</v>
+      </c>
+      <c r="I21" s="19">
+        <v>2653490000</v>
+      </c>
+      <c r="J21" s="19">
+        <v>2688140000</v>
+      </c>
+      <c r="K21" s="19">
+        <v>2723330000</v>
+      </c>
+      <c r="L21" s="19">
+        <v>2759080000</v>
+      </c>
+      <c r="M21" s="19">
+        <v>2795400000</v>
+      </c>
+      <c r="N21" s="19">
+        <v>2832290000</v>
+      </c>
+      <c r="O21" s="19">
+        <v>2869750000</v>
+      </c>
+      <c r="P21" s="19">
+        <v>2907820000</v>
+      </c>
+      <c r="Q21" s="19">
+        <v>2946480000</v>
+      </c>
+      <c r="R21" s="19">
+        <v>2985750000</v>
+      </c>
+      <c r="S21" s="19">
+        <v>3025640000</v>
+      </c>
+      <c r="T21" s="19">
+        <v>3066160000</v>
+      </c>
+      <c r="U21" s="19">
+        <v>3107310000</v>
+      </c>
+      <c r="V21" s="19">
+        <v>3149120000</v>
+      </c>
+      <c r="W21" s="19">
+        <v>3191590000</v>
+      </c>
+      <c r="X21" s="19">
+        <v>3234730000</v>
+      </c>
+      <c r="Y21" s="19">
+        <v>3278540000</v>
+      </c>
+      <c r="Z21" s="19">
+        <v>3323050000</v>
+      </c>
+      <c r="AA21" s="19">
+        <v>3368260000</v>
+      </c>
+      <c r="AB21" s="19">
+        <v>3414190000</v>
+      </c>
+      <c r="AC21" s="19">
+        <v>3460840000</v>
+      </c>
+      <c r="AD21" s="19">
+        <v>3508220000</v>
+      </c>
+      <c r="AE21" s="19">
+        <v>3556350000</v>
+      </c>
+      <c r="AF21" s="19">
+        <v>3605240000</v>
+      </c>
+      <c r="AG21" s="19">
+        <v>3654900000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>212</v>
+      </c>
+      <c r="B22" s="19">
+        <v>10308200000</v>
+      </c>
+      <c r="C22" s="19">
+        <v>10308200000</v>
+      </c>
+      <c r="D22" s="19">
+        <v>10506400000</v>
+      </c>
+      <c r="E22" s="19">
+        <v>10697800000</v>
+      </c>
+      <c r="F22" s="19">
+        <v>10881900000</v>
+      </c>
+      <c r="G22" s="19">
+        <v>11057900000</v>
+      </c>
+      <c r="H22" s="19">
+        <v>11225200000</v>
+      </c>
+      <c r="I22" s="19">
+        <v>11383200000</v>
+      </c>
+      <c r="J22" s="19">
+        <v>11531300000</v>
+      </c>
+      <c r="K22" s="19">
+        <v>11681700000</v>
+      </c>
+      <c r="L22" s="19">
+        <v>11834500000</v>
+      </c>
+      <c r="M22" s="19">
+        <v>11989700000</v>
+      </c>
+      <c r="N22" s="19">
+        <v>12147300000</v>
+      </c>
+      <c r="O22" s="19">
+        <v>12307400000</v>
+      </c>
+      <c r="P22" s="19">
+        <v>12470000000</v>
+      </c>
+      <c r="Q22" s="19">
+        <v>12635100000</v>
+      </c>
+      <c r="R22" s="19">
+        <v>12802900000</v>
+      </c>
+      <c r="S22" s="19">
+        <v>12973200000</v>
+      </c>
+      <c r="T22" s="19">
+        <v>13146300000</v>
+      </c>
+      <c r="U22" s="19">
+        <v>13322000000</v>
+      </c>
+      <c r="V22" s="19">
+        <v>13500500000</v>
+      </c>
+      <c r="W22" s="19">
+        <v>13681800000</v>
+      </c>
+      <c r="X22" s="19">
+        <v>13865900000</v>
+      </c>
+      <c r="Y22" s="19">
+        <v>14053000000</v>
+      </c>
+      <c r="Z22" s="19">
+        <v>14242900000</v>
+      </c>
+      <c r="AA22" s="19">
+        <v>14435900000</v>
+      </c>
+      <c r="AB22" s="19">
+        <v>14631800000</v>
+      </c>
+      <c r="AC22" s="19">
+        <v>14830800000</v>
+      </c>
+      <c r="AD22" s="19">
+        <v>15033000000</v>
+      </c>
+      <c r="AE22" s="19">
+        <v>15238300000</v>
+      </c>
+      <c r="AF22" s="19">
+        <v>15446900000</v>
+      </c>
+      <c r="AG22" s="19">
+        <v>15658700000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>213</v>
+      </c>
+      <c r="B23" s="19">
+        <v>15113800000</v>
+      </c>
+      <c r="C23" s="19">
+        <v>15113800000</v>
+      </c>
+      <c r="D23" s="19">
+        <v>15959800000</v>
+      </c>
+      <c r="E23" s="19">
+        <v>16760200000</v>
+      </c>
+      <c r="F23" s="19">
+        <v>17500000000</v>
+      </c>
+      <c r="G23" s="19">
+        <v>18164500000</v>
+      </c>
+      <c r="H23" s="19">
+        <v>18740000000</v>
+      </c>
+      <c r="I23" s="19">
+        <v>19214100000</v>
+      </c>
+      <c r="J23" s="19">
+        <v>19575800000</v>
+      </c>
+      <c r="K23" s="19">
+        <v>19945400000</v>
+      </c>
+      <c r="L23" s="19">
+        <v>20322800000</v>
+      </c>
+      <c r="M23" s="19">
+        <v>20708300000</v>
+      </c>
+      <c r="N23" s="19">
+        <v>21102100000</v>
+      </c>
+      <c r="O23" s="19">
+        <v>21504400000</v>
+      </c>
+      <c r="P23" s="19">
+        <v>21915300000</v>
+      </c>
+      <c r="Q23" s="19">
+        <v>22334900000</v>
+      </c>
+      <c r="R23" s="19">
+        <v>22763600000</v>
+      </c>
+      <c r="S23" s="19">
+        <v>23201500000</v>
+      </c>
+      <c r="T23" s="19">
+        <v>23648700000</v>
+      </c>
+      <c r="U23" s="19">
+        <v>24105600000</v>
+      </c>
+      <c r="V23" s="19">
+        <v>24572200000</v>
+      </c>
+      <c r="W23" s="19">
+        <v>25048800000</v>
+      </c>
+      <c r="X23" s="19">
+        <v>25535700000</v>
+      </c>
+      <c r="Y23" s="19">
+        <v>26033000000</v>
+      </c>
+      <c r="Z23" s="19">
+        <v>26541000000</v>
+      </c>
+      <c r="AA23" s="19">
+        <v>27059800000</v>
+      </c>
+      <c r="AB23" s="19">
+        <v>27589800000</v>
+      </c>
+      <c r="AC23" s="19">
+        <v>28131100000</v>
+      </c>
+      <c r="AD23" s="19">
+        <v>28684100000</v>
+      </c>
+      <c r="AE23" s="19">
+        <v>29248900000</v>
+      </c>
+      <c r="AF23" s="19">
+        <v>29825800000</v>
+      </c>
+      <c r="AG23" s="19">
+        <v>30415100000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>214</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>215</v>
+      </c>
+      <c r="B25" s="19">
+        <v>8074260000</v>
+      </c>
+      <c r="C25" s="19">
+        <v>8074260000</v>
+      </c>
+      <c r="D25" s="19">
+        <v>8120520000</v>
+      </c>
+      <c r="E25" s="19">
+        <v>8173630000</v>
+      </c>
+      <c r="F25" s="19">
+        <v>8233740000</v>
+      </c>
+      <c r="G25" s="19">
+        <v>8301030000</v>
+      </c>
+      <c r="H25" s="19">
+        <v>8375700000</v>
+      </c>
+      <c r="I25" s="19">
+        <v>8457990000</v>
+      </c>
+      <c r="J25" s="19">
+        <v>8548130000</v>
+      </c>
+      <c r="K25" s="19">
+        <v>8639460000</v>
+      </c>
+      <c r="L25" s="19">
+        <v>8732000000</v>
+      </c>
+      <c r="M25" s="19">
+        <v>8825760000</v>
+      </c>
+      <c r="N25" s="19">
+        <v>8920760000</v>
+      </c>
+      <c r="O25" s="19">
+        <v>9017010000</v>
+      </c>
+      <c r="P25" s="19">
+        <v>9114530000</v>
+      </c>
+      <c r="Q25" s="19">
+        <v>9213340000</v>
+      </c>
+      <c r="R25" s="19">
+        <v>9313460000</v>
+      </c>
+      <c r="S25" s="19">
+        <v>9414900000</v>
+      </c>
+      <c r="T25" s="19">
+        <v>9517680000</v>
+      </c>
+      <c r="U25" s="19">
+        <v>9621820000</v>
+      </c>
+      <c r="V25" s="19">
+        <v>9727330000</v>
+      </c>
+      <c r="W25" s="19">
+        <v>9834240000</v>
+      </c>
+      <c r="X25" s="19">
+        <v>9942560000</v>
+      </c>
+      <c r="Y25" s="19">
+        <v>10052300000</v>
+      </c>
+      <c r="Z25" s="19">
+        <v>10163500000</v>
+      </c>
+      <c r="AA25" s="19">
+        <v>10276200000</v>
+      </c>
+      <c r="AB25" s="19">
+        <v>10390300000</v>
+      </c>
+      <c r="AC25" s="19">
+        <v>10506000000</v>
+      </c>
+      <c r="AD25" s="19">
+        <v>10623200000</v>
+      </c>
+      <c r="AE25" s="19">
+        <v>10741900000</v>
+      </c>
+      <c r="AF25" s="19">
+        <v>10862200000</v>
+      </c>
+      <c r="AG25" s="19">
+        <v>10984100000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>216</v>
+      </c>
+      <c r="B26" s="19">
+        <v>3775650000</v>
+      </c>
+      <c r="C26" s="19">
+        <v>3775650000</v>
+      </c>
+      <c r="D26" s="19">
+        <v>3795850000</v>
+      </c>
+      <c r="E26" s="19">
+        <v>3821380000</v>
+      </c>
+      <c r="F26" s="19">
+        <v>3852350000</v>
+      </c>
+      <c r="G26" s="19">
+        <v>3888930000</v>
+      </c>
+      <c r="H26" s="19">
+        <v>3931300000</v>
+      </c>
+      <c r="I26" s="19">
+        <v>3979660000</v>
+      </c>
+      <c r="J26" s="19">
+        <v>4034270000</v>
+      </c>
+      <c r="K26" s="19">
+        <v>4089810000</v>
+      </c>
+      <c r="L26" s="19">
+        <v>4146290000</v>
+      </c>
+      <c r="M26" s="19">
+        <v>4203740000</v>
+      </c>
+      <c r="N26" s="19">
+        <v>4262150000</v>
+      </c>
+      <c r="O26" s="19">
+        <v>4321570000</v>
+      </c>
+      <c r="P26" s="19">
+        <v>4381990000</v>
+      </c>
+      <c r="Q26" s="19">
+        <v>4443440000</v>
+      </c>
+      <c r="R26" s="19">
+        <v>4505930000</v>
+      </c>
+      <c r="S26" s="19">
+        <v>4569490000</v>
+      </c>
+      <c r="T26" s="19">
+        <v>4634130000</v>
+      </c>
+      <c r="U26" s="19">
+        <v>4699860000</v>
+      </c>
+      <c r="V26" s="19">
+        <v>4766710000</v>
+      </c>
+      <c r="W26" s="19">
+        <v>4834700000</v>
+      </c>
+      <c r="X26" s="19">
+        <v>4903850000</v>
+      </c>
+      <c r="Y26" s="19">
+        <v>4974170000</v>
+      </c>
+      <c r="Z26" s="19">
+        <v>5045690000</v>
+      </c>
+      <c r="AA26" s="19">
+        <v>5118420000</v>
+      </c>
+      <c r="AB26" s="19">
+        <v>5192390000</v>
+      </c>
+      <c r="AC26" s="19">
+        <v>5267610000</v>
+      </c>
+      <c r="AD26" s="19">
+        <v>5344120000</v>
+      </c>
+      <c r="AE26" s="19">
+        <v>5421920000</v>
+      </c>
+      <c r="AF26" s="19">
+        <v>5501050000</v>
+      </c>
+      <c r="AG26" s="19">
+        <v>5581530000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>217</v>
+      </c>
+      <c r="B27" s="19">
+        <v>323157000</v>
+      </c>
+      <c r="C27" s="19">
+        <v>323157000</v>
+      </c>
+      <c r="D27" s="19">
+        <v>323891000</v>
+      </c>
+      <c r="E27" s="19">
+        <v>324847000</v>
+      </c>
+      <c r="F27" s="19">
+        <v>326028000</v>
+      </c>
+      <c r="G27" s="19">
+        <v>327437000</v>
+      </c>
+      <c r="H27" s="19">
+        <v>329078000</v>
+      </c>
+      <c r="I27" s="19">
+        <v>330953000</v>
+      </c>
+      <c r="J27" s="19">
+        <v>333069000</v>
+      </c>
+      <c r="K27" s="19">
+        <v>335202000</v>
+      </c>
+      <c r="L27" s="19">
+        <v>337352000</v>
+      </c>
+      <c r="M27" s="19">
+        <v>339519000</v>
+      </c>
+      <c r="N27" s="19">
+        <v>341704000</v>
+      </c>
+      <c r="O27" s="19">
+        <v>343906000</v>
+      </c>
+      <c r="P27" s="19">
+        <v>346125000</v>
+      </c>
+      <c r="Q27" s="19">
+        <v>348363000</v>
+      </c>
+      <c r="R27" s="19">
+        <v>350618000</v>
+      </c>
+      <c r="S27" s="19">
+        <v>352891000</v>
+      </c>
+      <c r="T27" s="19">
+        <v>355182000</v>
+      </c>
+      <c r="U27" s="19">
+        <v>357492000</v>
+      </c>
+      <c r="V27" s="19">
+        <v>359820000</v>
+      </c>
+      <c r="W27" s="19">
+        <v>362167000</v>
+      </c>
+      <c r="X27" s="19">
+        <v>364533000</v>
+      </c>
+      <c r="Y27" s="19">
+        <v>366918000</v>
+      </c>
+      <c r="Z27" s="19">
+        <v>369321000</v>
+      </c>
+      <c r="AA27" s="19">
+        <v>371744000</v>
+      </c>
+      <c r="AB27" s="19">
+        <v>374186000</v>
+      </c>
+      <c r="AC27" s="19">
+        <v>376648000</v>
+      </c>
+      <c r="AD27" s="19">
+        <v>379130000</v>
+      </c>
+      <c r="AE27" s="19">
+        <v>381631000</v>
+      </c>
+      <c r="AF27" s="19">
+        <v>384152000</v>
+      </c>
+      <c r="AG27" s="19">
+        <v>386694000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>218</v>
+      </c>
+      <c r="B28" s="19">
+        <v>5276980000</v>
+      </c>
+      <c r="C28" s="19">
+        <v>5276980000</v>
+      </c>
+      <c r="D28" s="19">
+        <v>5340230000</v>
+      </c>
+      <c r="E28" s="19">
+        <v>5405480000</v>
+      </c>
+      <c r="F28" s="19">
+        <v>5472800000</v>
+      </c>
+      <c r="G28" s="19">
+        <v>5542260000</v>
+      </c>
+      <c r="H28" s="19">
+        <v>5613910000</v>
+      </c>
+      <c r="I28" s="19">
+        <v>5687830000</v>
+      </c>
+      <c r="J28" s="19">
+        <v>5764090000</v>
+      </c>
+      <c r="K28" s="19">
+        <v>5841610000</v>
+      </c>
+      <c r="L28" s="19">
+        <v>5920390000</v>
+      </c>
+      <c r="M28" s="19">
+        <v>6000460000</v>
+      </c>
+      <c r="N28" s="19">
+        <v>6081840000</v>
+      </c>
+      <c r="O28" s="19">
+        <v>6164560000</v>
+      </c>
+      <c r="P28" s="19">
+        <v>6248630000</v>
+      </c>
+      <c r="Q28" s="19">
+        <v>6334080000</v>
+      </c>
+      <c r="R28" s="19">
+        <v>6420930000</v>
+      </c>
+      <c r="S28" s="19">
+        <v>6509200000</v>
+      </c>
+      <c r="T28" s="19">
+        <v>6598920000</v>
+      </c>
+      <c r="U28" s="19">
+        <v>6690110000</v>
+      </c>
+      <c r="V28" s="19">
+        <v>6782790000</v>
+      </c>
+      <c r="W28" s="19">
+        <v>6876990000</v>
+      </c>
+      <c r="X28" s="19">
+        <v>6972730000</v>
+      </c>
+      <c r="Y28" s="19">
+        <v>7070040000</v>
+      </c>
+      <c r="Z28" s="19">
+        <v>7168940000</v>
+      </c>
+      <c r="AA28" s="19">
+        <v>7269470000</v>
+      </c>
+      <c r="AB28" s="19">
+        <v>7371640000</v>
+      </c>
+      <c r="AC28" s="19">
+        <v>7475480000</v>
+      </c>
+      <c r="AD28" s="19">
+        <v>7581030000</v>
+      </c>
+      <c r="AE28" s="19">
+        <v>7688300000</v>
+      </c>
+      <c r="AF28" s="19">
+        <v>7797330000</v>
+      </c>
+      <c r="AG28" s="19">
+        <v>7908150000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>219</v>
+      </c>
+      <c r="B29" s="19">
+        <v>64033500000</v>
+      </c>
+      <c r="C29" s="19">
+        <v>64033500000</v>
+      </c>
+      <c r="D29" s="19">
+        <v>65042600000</v>
+      </c>
+      <c r="E29" s="19">
+        <v>66044400000</v>
+      </c>
+      <c r="F29" s="19">
+        <v>67037900000</v>
+      </c>
+      <c r="G29" s="19">
+        <v>68021800000</v>
+      </c>
+      <c r="H29" s="19">
+        <v>68995000000</v>
+      </c>
+      <c r="I29" s="19">
+        <v>69956300000</v>
+      </c>
+      <c r="J29" s="19">
+        <v>70904600000</v>
+      </c>
+      <c r="K29" s="19">
+        <v>71868300000</v>
+      </c>
+      <c r="L29" s="19">
+        <v>72848000000</v>
+      </c>
+      <c r="M29" s="19">
+        <v>73843700000</v>
+      </c>
+      <c r="N29" s="19">
+        <v>74855800000</v>
+      </c>
+      <c r="O29" s="19">
+        <v>75884500000</v>
+      </c>
+      <c r="P29" s="19">
+        <v>76930100000</v>
+      </c>
+      <c r="Q29" s="19">
+        <v>77993000000</v>
+      </c>
+      <c r="R29" s="19">
+        <v>79073200000</v>
+      </c>
+      <c r="S29" s="19">
+        <v>80171300000</v>
+      </c>
+      <c r="T29" s="19">
+        <v>81287400000</v>
+      </c>
+      <c r="U29" s="19">
+        <v>82421800000</v>
+      </c>
+      <c r="V29" s="19">
+        <v>83574900000</v>
+      </c>
+      <c r="W29" s="19">
+        <v>84746900000</v>
+      </c>
+      <c r="X29" s="19">
+        <v>85938200000</v>
+      </c>
+      <c r="Y29" s="19">
+        <v>87149000000</v>
+      </c>
+      <c r="Z29" s="19">
+        <v>88379800000</v>
+      </c>
+      <c r="AA29" s="19">
+        <v>89630800000</v>
+      </c>
+      <c r="AB29" s="19">
+        <v>90902400000</v>
+      </c>
+      <c r="AC29" s="19">
+        <v>92194800000</v>
+      </c>
+      <c r="AD29" s="19">
+        <v>93508500000</v>
+      </c>
+      <c r="AE29" s="19">
+        <v>94843800000</v>
+      </c>
+      <c r="AF29" s="19">
+        <v>96201000000</v>
+      </c>
+      <c r="AG29" s="19">
+        <v>97580500000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>220</v>
+      </c>
+      <c r="B30" s="19">
+        <v>100357000000</v>
+      </c>
+      <c r="C30" s="19">
+        <v>100357000000</v>
+      </c>
+      <c r="D30" s="19">
+        <v>103561000000</v>
+      </c>
+      <c r="E30" s="19">
+        <v>106692000000</v>
+      </c>
+      <c r="F30" s="19">
+        <v>109734000000</v>
+      </c>
+      <c r="G30" s="19">
+        <v>112669000000</v>
+      </c>
+      <c r="H30" s="19">
+        <v>115480000000</v>
+      </c>
+      <c r="I30" s="19">
+        <v>118151000000</v>
+      </c>
+      <c r="J30" s="19">
+        <v>120664000000</v>
+      </c>
+      <c r="K30" s="19">
+        <v>123241000000</v>
+      </c>
+      <c r="L30" s="19">
+        <v>125882000000</v>
+      </c>
+      <c r="M30" s="19">
+        <v>128590000000</v>
+      </c>
+      <c r="N30" s="19">
+        <v>131365000000</v>
+      </c>
+      <c r="O30" s="19">
+        <v>134209000000</v>
+      </c>
+      <c r="P30" s="19">
+        <v>137125000000</v>
+      </c>
+      <c r="Q30" s="19">
+        <v>140114000000</v>
+      </c>
+      <c r="R30" s="19">
+        <v>143177000000</v>
+      </c>
+      <c r="S30" s="19">
+        <v>146317000000</v>
+      </c>
+      <c r="T30" s="19">
+        <v>149536000000</v>
+      </c>
+      <c r="U30" s="19">
+        <v>152835000000</v>
+      </c>
+      <c r="V30" s="19">
+        <v>156216000000</v>
+      </c>
+      <c r="W30" s="19">
+        <v>159683000000</v>
+      </c>
+      <c r="X30" s="19">
+        <v>163236000000</v>
+      </c>
+      <c r="Y30" s="19">
+        <v>166878000000</v>
+      </c>
+      <c r="Z30" s="19">
+        <v>170611000000</v>
+      </c>
+      <c r="AA30" s="19">
+        <v>174437000000</v>
+      </c>
+      <c r="AB30" s="19">
+        <v>178359000000</v>
+      </c>
+      <c r="AC30" s="19">
+        <v>182380000000</v>
+      </c>
+      <c r="AD30" s="19">
+        <v>186501000000</v>
+      </c>
+      <c r="AE30" s="19">
+        <v>190725000000</v>
+      </c>
+      <c r="AF30" s="19">
+        <v>195054000000</v>
+      </c>
+      <c r="AG30" s="19">
+        <v>199493000000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>221</v>
+      </c>
+      <c r="B31" s="19">
+        <v>32570400000</v>
+      </c>
+      <c r="C31" s="19">
+        <v>32570400000</v>
+      </c>
+      <c r="D31" s="19">
+        <v>33036000000</v>
+      </c>
+      <c r="E31" s="19">
+        <v>33502200000</v>
+      </c>
+      <c r="F31" s="19">
+        <v>33968800000</v>
+      </c>
+      <c r="G31" s="19">
+        <v>34435400000</v>
+      </c>
+      <c r="H31" s="19">
+        <v>34901900000</v>
+      </c>
+      <c r="I31" s="19">
+        <v>35367900000</v>
+      </c>
+      <c r="J31" s="19">
+        <v>35833200000</v>
+      </c>
+      <c r="K31" s="19">
+        <v>36305900000</v>
+      </c>
+      <c r="L31" s="19">
+        <v>36786200000</v>
+      </c>
+      <c r="M31" s="19">
+        <v>37274200000</v>
+      </c>
+      <c r="N31" s="19">
+        <v>37770000000</v>
+      </c>
+      <c r="O31" s="19">
+        <v>38273800000</v>
+      </c>
+      <c r="P31" s="19">
+        <v>38785600000</v>
+      </c>
+      <c r="Q31" s="19">
+        <v>39305500000</v>
+      </c>
+      <c r="R31" s="19">
+        <v>39833800000</v>
+      </c>
+      <c r="S31" s="19">
+        <v>40370600000</v>
+      </c>
+      <c r="T31" s="19">
+        <v>40915900000</v>
+      </c>
+      <c r="U31" s="19">
+        <v>41470000000</v>
+      </c>
+      <c r="V31" s="19">
+        <v>42032900000</v>
+      </c>
+      <c r="W31" s="19">
+        <v>42604900000</v>
+      </c>
+      <c r="X31" s="19">
+        <v>43186000000</v>
+      </c>
+      <c r="Y31" s="19">
+        <v>43776300000</v>
+      </c>
+      <c r="Z31" s="19">
+        <v>44376200000</v>
+      </c>
+      <c r="AA31" s="19">
+        <v>44985600000</v>
+      </c>
+      <c r="AB31" s="19">
+        <v>45604800000</v>
+      </c>
+      <c r="AC31" s="19">
+        <v>46233900000</v>
+      </c>
+      <c r="AD31" s="19">
+        <v>46873000000</v>
+      </c>
+      <c r="AE31" s="19">
+        <v>47522400000</v>
+      </c>
+      <c r="AF31" s="19">
+        <v>48182200000</v>
+      </c>
+      <c r="AG31" s="19">
+        <v>48852500000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>222</v>
+      </c>
+      <c r="B32" s="19">
+        <v>23369700000</v>
+      </c>
+      <c r="C32" s="19">
+        <v>23369700000</v>
+      </c>
+      <c r="D32" s="19">
+        <v>23934000000</v>
+      </c>
+      <c r="E32" s="19">
+        <v>24487000000</v>
+      </c>
+      <c r="F32" s="19">
+        <v>25026700000</v>
+      </c>
+      <c r="G32" s="19">
+        <v>25551200000</v>
+      </c>
+      <c r="H32" s="19">
+        <v>26058600000</v>
+      </c>
+      <c r="I32" s="19">
+        <v>26547000000</v>
+      </c>
+      <c r="J32" s="19">
+        <v>27014500000</v>
+      </c>
+      <c r="K32" s="19">
+        <v>27491800000</v>
+      </c>
+      <c r="L32" s="19">
+        <v>27979200000</v>
+      </c>
+      <c r="M32" s="19">
+        <v>28476700000</v>
+      </c>
+      <c r="N32" s="19">
+        <v>28984800000</v>
+      </c>
+      <c r="O32" s="19">
+        <v>29503500000</v>
+      </c>
+      <c r="P32" s="19">
+        <v>30033100000</v>
+      </c>
+      <c r="Q32" s="19">
+        <v>30573800000</v>
+      </c>
+      <c r="R32" s="19">
+        <v>31125900000</v>
+      </c>
+      <c r="S32" s="19">
+        <v>31689600000</v>
+      </c>
+      <c r="T32" s="19">
+        <v>32265100000</v>
+      </c>
+      <c r="U32" s="19">
+        <v>32852700000</v>
+      </c>
+      <c r="V32" s="19">
+        <v>33452600000</v>
+      </c>
+      <c r="W32" s="19">
+        <v>34065100000</v>
+      </c>
+      <c r="X32" s="19">
+        <v>34690500000</v>
+      </c>
+      <c r="Y32" s="19">
+        <v>35329100000</v>
+      </c>
+      <c r="Z32" s="19">
+        <v>35981000000</v>
+      </c>
+      <c r="AA32" s="19">
+        <v>36646600000</v>
+      </c>
+      <c r="AB32" s="19">
+        <v>37326200000</v>
+      </c>
+      <c r="AC32" s="19">
+        <v>38020100000</v>
+      </c>
+      <c r="AD32" s="19">
+        <v>38728600000</v>
+      </c>
+      <c r="AE32" s="19">
+        <v>39451900000</v>
+      </c>
+      <c r="AF32" s="19">
+        <v>40190400000</v>
+      </c>
+      <c r="AG32" s="19">
+        <v>40944500000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>223</v>
+      </c>
+      <c r="B33" s="19">
+        <v>8458800000</v>
+      </c>
+      <c r="C33" s="19">
+        <v>8458800000</v>
+      </c>
+      <c r="D33" s="19">
+        <v>8616460000</v>
+      </c>
+      <c r="E33" s="19">
+        <v>8781720000</v>
+      </c>
+      <c r="F33" s="19">
+        <v>8954940000</v>
+      </c>
+      <c r="G33" s="19">
+        <v>9136510000</v>
+      </c>
+      <c r="H33" s="19">
+        <v>9326820000</v>
+      </c>
+      <c r="I33" s="19">
+        <v>9526320000</v>
+      </c>
+      <c r="J33" s="19">
+        <v>9735460000</v>
+      </c>
+      <c r="K33" s="19">
+        <v>9950130000</v>
+      </c>
+      <c r="L33" s="19">
+        <v>10170500000</v>
+      </c>
+      <c r="M33" s="19">
+        <v>10396600000</v>
+      </c>
+      <c r="N33" s="19">
+        <v>10628700000</v>
+      </c>
+      <c r="O33" s="19">
+        <v>10867000000</v>
+      </c>
+      <c r="P33" s="19">
+        <v>11111500000</v>
+      </c>
+      <c r="Q33" s="19">
+        <v>11362500000</v>
+      </c>
+      <c r="R33" s="19">
+        <v>11620100000</v>
+      </c>
+      <c r="S33" s="19">
+        <v>11884500000</v>
+      </c>
+      <c r="T33" s="19">
+        <v>12155900000</v>
+      </c>
+      <c r="U33" s="19">
+        <v>12434500000</v>
+      </c>
+      <c r="V33" s="19">
+        <v>12720400000</v>
+      </c>
+      <c r="W33" s="19">
+        <v>13013900000</v>
+      </c>
+      <c r="X33" s="19">
+        <v>13315100000</v>
+      </c>
+      <c r="Y33" s="19">
+        <v>13624200000</v>
+      </c>
+      <c r="Z33" s="19">
+        <v>13941600000</v>
+      </c>
+      <c r="AA33" s="19">
+        <v>14267300000</v>
+      </c>
+      <c r="AB33" s="19">
+        <v>14601600000</v>
+      </c>
+      <c r="AC33" s="19">
+        <v>14944700000</v>
+      </c>
+      <c r="AD33" s="19">
+        <v>15296900000</v>
+      </c>
+      <c r="AE33" s="19">
+        <v>15658400000</v>
+      </c>
+      <c r="AF33" s="19">
+        <v>16029400000</v>
+      </c>
+      <c r="AG33" s="19">
+        <v>16410200000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>224</v>
+      </c>
+      <c r="B34" s="19">
+        <v>6323040000</v>
+      </c>
+      <c r="C34" s="19">
+        <v>6323040000</v>
+      </c>
+      <c r="D34" s="19">
+        <v>6502500000</v>
+      </c>
+      <c r="E34" s="19">
+        <v>6675130000</v>
+      </c>
+      <c r="F34" s="19">
+        <v>6839840000</v>
+      </c>
+      <c r="G34" s="19">
+        <v>6995580000</v>
+      </c>
+      <c r="H34" s="19">
+        <v>7141330000</v>
+      </c>
+      <c r="I34" s="19">
+        <v>7276110000</v>
+      </c>
+      <c r="J34" s="19">
+        <v>7398990000</v>
+      </c>
+      <c r="K34" s="19">
+        <v>7524330000</v>
+      </c>
+      <c r="L34" s="19">
+        <v>7652180000</v>
+      </c>
+      <c r="M34" s="19">
+        <v>7782590000</v>
+      </c>
+      <c r="N34" s="19">
+        <v>7915600000</v>
+      </c>
+      <c r="O34" s="19">
+        <v>8051270000</v>
+      </c>
+      <c r="P34" s="19">
+        <v>8189660000</v>
+      </c>
+      <c r="Q34" s="19">
+        <v>8330810000</v>
+      </c>
+      <c r="R34" s="19">
+        <v>8474780000</v>
+      </c>
+      <c r="S34" s="19">
+        <v>8621640000</v>
+      </c>
+      <c r="T34" s="19">
+        <v>8771430000</v>
+      </c>
+      <c r="U34" s="19">
+        <v>8924220000</v>
+      </c>
+      <c r="V34" s="19">
+        <v>9080070000</v>
+      </c>
+      <c r="W34" s="19">
+        <v>9239030000</v>
+      </c>
+      <c r="X34" s="19">
+        <v>9401170000</v>
+      </c>
+      <c r="Y34" s="19">
+        <v>9566550000</v>
+      </c>
+      <c r="Z34" s="19">
+        <v>9735240000</v>
+      </c>
+      <c r="AA34" s="19">
+        <v>9907310000</v>
+      </c>
+      <c r="AB34" s="19">
+        <v>10082800000</v>
+      </c>
+      <c r="AC34" s="19">
+        <v>10261800000</v>
+      </c>
+      <c r="AD34" s="19">
+        <v>10444400000</v>
+      </c>
+      <c r="AE34" s="19">
+        <v>10630700000</v>
+      </c>
+      <c r="AF34" s="19">
+        <v>10820700000</v>
+      </c>
+      <c r="AG34" s="19">
+        <v>11014400000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>225</v>
+      </c>
+      <c r="B35" s="19">
+        <v>25978200000</v>
+      </c>
+      <c r="C35" s="19">
+        <v>25978200000</v>
+      </c>
+      <c r="D35" s="19">
+        <v>28685000000</v>
+      </c>
+      <c r="E35" s="19">
+        <v>31367200000</v>
+      </c>
+      <c r="F35" s="19">
+        <v>33949000000</v>
+      </c>
+      <c r="G35" s="19">
+        <v>36349600000</v>
+      </c>
+      <c r="H35" s="19">
+        <v>38487200000</v>
+      </c>
+      <c r="I35" s="19">
+        <v>40283300000</v>
+      </c>
+      <c r="J35" s="19">
+        <v>41666900000</v>
+      </c>
+      <c r="K35" s="19">
+        <v>43102100000</v>
+      </c>
+      <c r="L35" s="19">
+        <v>44590900000</v>
+      </c>
+      <c r="M35" s="19">
+        <v>46135300000</v>
+      </c>
+      <c r="N35" s="19">
+        <v>47737200000</v>
+      </c>
+      <c r="O35" s="19">
+        <v>49398900000</v>
+      </c>
+      <c r="P35" s="19">
+        <v>51122600000</v>
+      </c>
+      <c r="Q35" s="19">
+        <v>52910700000</v>
+      </c>
+      <c r="R35" s="19">
+        <v>54765400000</v>
+      </c>
+      <c r="S35" s="19">
+        <v>56689300000</v>
+      </c>
+      <c r="T35" s="19">
+        <v>58685100000</v>
+      </c>
+      <c r="U35" s="19">
+        <v>60755300000</v>
+      </c>
+      <c r="V35" s="19">
+        <v>62902700000</v>
+      </c>
+      <c r="W35" s="19">
+        <v>65130200000</v>
+      </c>
+      <c r="X35" s="19">
+        <v>67440900000</v>
+      </c>
+      <c r="Y35" s="19">
+        <v>69837700000</v>
+      </c>
+      <c r="Z35" s="19">
+        <v>72324000000</v>
+      </c>
+      <c r="AA35" s="19">
+        <v>74903100000</v>
+      </c>
+      <c r="AB35" s="19">
+        <v>77578300000</v>
+      </c>
+      <c r="AC35" s="19">
+        <v>80353400000</v>
+      </c>
+      <c r="AD35" s="19">
+        <v>83232000000</v>
+      </c>
+      <c r="AE35" s="19">
+        <v>86218100000</v>
+      </c>
+      <c r="AF35" s="19">
+        <v>89315500000</v>
+      </c>
+      <c r="AG35" s="19">
+        <v>92528500000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>226</v>
+      </c>
+      <c r="B36" s="19">
+        <v>51087200000</v>
+      </c>
+      <c r="C36" s="19">
+        <v>51087200000</v>
+      </c>
+      <c r="D36" s="19">
+        <v>51555100000</v>
+      </c>
+      <c r="E36" s="19">
+        <v>52046200000</v>
+      </c>
+      <c r="F36" s="19">
+        <v>52561100000</v>
+      </c>
+      <c r="G36" s="19">
+        <v>53100500000</v>
+      </c>
+      <c r="H36" s="19">
+        <v>53665100000</v>
+      </c>
+      <c r="I36" s="19">
+        <v>54255800000</v>
+      </c>
+      <c r="J36" s="19">
+        <v>54873500000</v>
+      </c>
+      <c r="K36" s="19">
+        <v>55499800000</v>
+      </c>
+      <c r="L36" s="19">
+        <v>56134800000</v>
+      </c>
+      <c r="M36" s="19">
+        <v>56778800000</v>
+      </c>
+      <c r="N36" s="19">
+        <v>57431800000</v>
+      </c>
+      <c r="O36" s="19">
+        <v>58093900000</v>
+      </c>
+      <c r="P36" s="19">
+        <v>58765200000</v>
+      </c>
+      <c r="Q36" s="19">
+        <v>59446000000</v>
+      </c>
+      <c r="R36" s="19">
+        <v>60136300000</v>
+      </c>
+      <c r="S36" s="19">
+        <v>60836300000</v>
+      </c>
+      <c r="T36" s="19">
+        <v>61546100000</v>
+      </c>
+      <c r="U36" s="19">
+        <v>62265800000</v>
+      </c>
+      <c r="V36" s="19">
+        <v>62995600000</v>
+      </c>
+      <c r="W36" s="19">
+        <v>63735600000</v>
+      </c>
+      <c r="X36" s="19">
+        <v>64485900000</v>
+      </c>
+      <c r="Y36" s="19">
+        <v>65246800000</v>
+      </c>
+      <c r="Z36" s="19">
+        <v>66018300000</v>
+      </c>
+      <c r="AA36" s="19">
+        <v>66800600000</v>
+      </c>
+      <c r="AB36" s="19">
+        <v>67593900000</v>
+      </c>
+      <c r="AC36" s="19">
+        <v>68398300000</v>
+      </c>
+      <c r="AD36" s="19">
+        <v>69213900000</v>
+      </c>
+      <c r="AE36" s="19">
+        <v>70041000000</v>
+      </c>
+      <c r="AF36" s="19">
+        <v>70879600000</v>
+      </c>
+      <c r="AG36" s="19">
+        <v>71730000000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>227</v>
+      </c>
+      <c r="B37" s="19">
+        <v>7330840000</v>
+      </c>
+      <c r="C37" s="19">
+        <v>7330840000</v>
+      </c>
+      <c r="D37" s="19">
+        <v>7464140000</v>
+      </c>
+      <c r="E37" s="19">
+        <v>7596970000</v>
+      </c>
+      <c r="F37" s="19">
+        <v>7729140000</v>
+      </c>
+      <c r="G37" s="19">
+        <v>7860510000</v>
+      </c>
+      <c r="H37" s="19">
+        <v>7990900000</v>
+      </c>
+      <c r="I37" s="19">
+        <v>8120140000</v>
+      </c>
+      <c r="J37" s="19">
+        <v>8248070000</v>
+      </c>
+      <c r="K37" s="19">
+        <v>8378430000</v>
+      </c>
+      <c r="L37" s="19">
+        <v>8511260000</v>
+      </c>
+      <c r="M37" s="19">
+        <v>8646620000</v>
+      </c>
+      <c r="N37" s="19">
+        <v>8784540000</v>
+      </c>
+      <c r="O37" s="19">
+        <v>8925090000</v>
+      </c>
+      <c r="P37" s="19">
+        <v>9068310000</v>
+      </c>
+      <c r="Q37" s="19">
+        <v>9214250000</v>
+      </c>
+      <c r="R37" s="19">
+        <v>9362960000</v>
+      </c>
+      <c r="S37" s="19">
+        <v>9514500000</v>
+      </c>
+      <c r="T37" s="19">
+        <v>9668920000</v>
+      </c>
+      <c r="U37" s="19">
+        <v>9826270000</v>
+      </c>
+      <c r="V37" s="19">
+        <v>9986620000</v>
+      </c>
+      <c r="W37" s="19">
+        <v>10150000000</v>
+      </c>
+      <c r="X37" s="19">
+        <v>10316500000</v>
+      </c>
+      <c r="Y37" s="19">
+        <v>10486200000</v>
+      </c>
+      <c r="Z37" s="19">
+        <v>10659000000</v>
+      </c>
+      <c r="AA37" s="19">
+        <v>10835200000</v>
+      </c>
+      <c r="AB37" s="19">
+        <v>11014700000</v>
+      </c>
+      <c r="AC37" s="19">
+        <v>11197600000</v>
+      </c>
+      <c r="AD37" s="19">
+        <v>11384000000</v>
+      </c>
+      <c r="AE37" s="19">
+        <v>11574000000</v>
+      </c>
+      <c r="AF37" s="19">
+        <v>11767500000</v>
+      </c>
+      <c r="AG37" s="19">
+        <v>11964700000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>228</v>
+      </c>
+      <c r="B38" s="19">
+        <v>69252600000</v>
+      </c>
+      <c r="C38" s="19">
+        <v>69252600000</v>
+      </c>
+      <c r="D38" s="19">
+        <v>70994600000</v>
+      </c>
+      <c r="E38" s="19">
+        <v>72710300000</v>
+      </c>
+      <c r="F38" s="19">
+        <v>74394200000</v>
+      </c>
+      <c r="G38" s="19">
+        <v>76040800000</v>
+      </c>
+      <c r="H38" s="19">
+        <v>77644400000</v>
+      </c>
+      <c r="I38" s="19">
+        <v>79199500000</v>
+      </c>
+      <c r="J38" s="19">
+        <v>80700600000</v>
+      </c>
+      <c r="K38" s="19">
+        <v>82235700000</v>
+      </c>
+      <c r="L38" s="19">
+        <v>83805300000</v>
+      </c>
+      <c r="M38" s="19">
+        <v>85410300000</v>
+      </c>
+      <c r="N38" s="19">
+        <v>87051600000</v>
+      </c>
+      <c r="O38" s="19">
+        <v>88729900000</v>
+      </c>
+      <c r="P38" s="19">
+        <v>90446000000</v>
+      </c>
+      <c r="Q38" s="19">
+        <v>92200800000</v>
+      </c>
+      <c r="R38" s="19">
+        <v>93995200000</v>
+      </c>
+      <c r="S38" s="19">
+        <v>95830000000</v>
+      </c>
+      <c r="T38" s="19">
+        <v>97706300000</v>
+      </c>
+      <c r="U38" s="19">
+        <v>99624800000</v>
+      </c>
+      <c r="V38" s="19">
+        <v>101587000000</v>
+      </c>
+      <c r="W38" s="19">
+        <v>103593000000</v>
+      </c>
+      <c r="X38" s="19">
+        <v>105644000000</v>
+      </c>
+      <c r="Y38" s="19">
+        <v>107742000000</v>
+      </c>
+      <c r="Z38" s="19">
+        <v>109886000000</v>
+      </c>
+      <c r="AA38" s="19">
+        <v>112080000000</v>
+      </c>
+      <c r="AB38" s="19">
+        <v>114322000000</v>
+      </c>
+      <c r="AC38" s="19">
+        <v>116616000000</v>
+      </c>
+      <c r="AD38" s="19">
+        <v>118961000000</v>
+      </c>
+      <c r="AE38" s="19">
+        <v>121359000000</v>
+      </c>
+      <c r="AF38" s="19">
+        <v>123811000000</v>
+      </c>
+      <c r="AG38" s="19">
+        <v>126318000000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>229</v>
+      </c>
+      <c r="B39" s="19">
+        <v>56330700000</v>
+      </c>
+      <c r="C39" s="19">
+        <v>56330700000</v>
+      </c>
+      <c r="D39" s="19">
+        <v>56525900000</v>
+      </c>
+      <c r="E39" s="19">
+        <v>56745900000</v>
+      </c>
+      <c r="F39" s="19">
+        <v>56991000000</v>
+      </c>
+      <c r="G39" s="19">
+        <v>57261700000</v>
+      </c>
+      <c r="H39" s="19">
+        <v>57558300000</v>
+      </c>
+      <c r="I39" s="19">
+        <v>57881500000</v>
+      </c>
+      <c r="J39" s="19">
+        <v>58231500000</v>
+      </c>
+      <c r="K39" s="19">
+        <v>58584200000</v>
+      </c>
+      <c r="L39" s="19">
+        <v>58939600000</v>
+      </c>
+      <c r="M39" s="19">
+        <v>59297700000</v>
+      </c>
+      <c r="N39" s="19">
+        <v>59658400000</v>
+      </c>
+      <c r="O39" s="19">
+        <v>60021900000</v>
+      </c>
+      <c r="P39" s="19">
+        <v>60388100000</v>
+      </c>
+      <c r="Q39" s="19">
+        <v>60757100000</v>
+      </c>
+      <c r="R39" s="19">
+        <v>61128900000</v>
+      </c>
+      <c r="S39" s="19">
+        <v>61503500000</v>
+      </c>
+      <c r="T39" s="19">
+        <v>61880900000</v>
+      </c>
+      <c r="U39" s="19">
+        <v>62261100000</v>
+      </c>
+      <c r="V39" s="19">
+        <v>62644200000</v>
+      </c>
+      <c r="W39" s="19">
+        <v>63030300000</v>
+      </c>
+      <c r="X39" s="19">
+        <v>63419200000</v>
+      </c>
+      <c r="Y39" s="19">
+        <v>63811100000</v>
+      </c>
+      <c r="Z39" s="19">
+        <v>64205900000</v>
+      </c>
+      <c r="AA39" s="19">
+        <v>64603700000</v>
+      </c>
+      <c r="AB39" s="19">
+        <v>65004500000</v>
+      </c>
+      <c r="AC39" s="19">
+        <v>65408300000</v>
+      </c>
+      <c r="AD39" s="19">
+        <v>65815200000</v>
+      </c>
+      <c r="AE39" s="19">
+        <v>66225200000</v>
+      </c>
+      <c r="AF39" s="19">
+        <v>66638200000</v>
+      </c>
+      <c r="AG39" s="19">
+        <v>67054400000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>230</v>
+      </c>
+      <c r="B40" s="19">
+        <v>49652700000</v>
+      </c>
+      <c r="C40" s="19">
+        <v>49652700000</v>
+      </c>
+      <c r="D40" s="19">
+        <v>49748300000</v>
+      </c>
+      <c r="E40" s="19">
+        <v>49940000000</v>
+      </c>
+      <c r="F40" s="19">
+        <v>50228800000</v>
+      </c>
+      <c r="G40" s="19">
+        <v>50616800000</v>
+      </c>
+      <c r="H40" s="19">
+        <v>51106400000</v>
+      </c>
+      <c r="I40" s="19">
+        <v>51701100000</v>
+      </c>
+      <c r="J40" s="19">
+        <v>52405100000</v>
+      </c>
+      <c r="K40" s="19">
+        <v>53121000000</v>
+      </c>
+      <c r="L40" s="19">
+        <v>53849100000</v>
+      </c>
+      <c r="M40" s="19">
+        <v>54589500000</v>
+      </c>
+      <c r="N40" s="19">
+        <v>55342600000</v>
+      </c>
+      <c r="O40" s="19">
+        <v>56108400000</v>
+      </c>
+      <c r="P40" s="19">
+        <v>56887300000</v>
+      </c>
+      <c r="Q40" s="19">
+        <v>57679400000</v>
+      </c>
+      <c r="R40" s="19">
+        <v>58484900000</v>
+      </c>
+      <c r="S40" s="19">
+        <v>59304200000</v>
+      </c>
+      <c r="T40" s="19">
+        <v>60137400000</v>
+      </c>
+      <c r="U40" s="19">
+        <v>60984800000</v>
+      </c>
+      <c r="V40" s="19">
+        <v>61846500000</v>
+      </c>
+      <c r="W40" s="19">
+        <v>62722900000</v>
+      </c>
+      <c r="X40" s="19">
+        <v>63614300000</v>
+      </c>
+      <c r="Y40" s="19">
+        <v>64520700000</v>
+      </c>
+      <c r="Z40" s="19">
+        <v>65442600000</v>
+      </c>
+      <c r="AA40" s="19">
+        <v>66380100000</v>
+      </c>
+      <c r="AB40" s="19">
+        <v>67333600000</v>
+      </c>
+      <c r="AC40" s="19">
+        <v>68303300000</v>
+      </c>
+      <c r="AD40" s="19">
+        <v>69289500000</v>
+      </c>
+      <c r="AE40" s="19">
+        <v>70292400000</v>
+      </c>
+      <c r="AF40" s="19">
+        <v>71312400000</v>
+      </c>
+      <c r="AG40" s="19">
+        <v>72349800000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>231</v>
+      </c>
+      <c r="B41" s="19">
+        <v>68805400000</v>
+      </c>
+      <c r="C41" s="19">
+        <v>68805400000</v>
+      </c>
+      <c r="D41" s="19">
+        <v>70382600000</v>
+      </c>
+      <c r="E41" s="19">
+        <v>72012300000</v>
+      </c>
+      <c r="F41" s="19">
+        <v>73696700000</v>
+      </c>
+      <c r="G41" s="19">
+        <v>75437600000</v>
+      </c>
+      <c r="H41" s="19">
+        <v>77237200000</v>
+      </c>
+      <c r="I41" s="19">
+        <v>79097700000</v>
+      </c>
+      <c r="J41" s="19">
+        <v>81021300000</v>
+      </c>
+      <c r="K41" s="19">
+        <v>83000700000</v>
+      </c>
+      <c r="L41" s="19">
+        <v>85037600000</v>
+      </c>
+      <c r="M41" s="19">
+        <v>87133500000</v>
+      </c>
+      <c r="N41" s="19">
+        <v>89290200000</v>
+      </c>
+      <c r="O41" s="19">
+        <v>91509400000</v>
+      </c>
+      <c r="P41" s="19">
+        <v>93793000000</v>
+      </c>
+      <c r="Q41" s="19">
+        <v>96142800000</v>
+      </c>
+      <c r="R41" s="19">
+        <v>98560800000</v>
+      </c>
+      <c r="S41" s="19">
+        <v>101049000000</v>
+      </c>
+      <c r="T41" s="19">
+        <v>103609000000</v>
+      </c>
+      <c r="U41" s="19">
+        <v>106244000000</v>
+      </c>
+      <c r="V41" s="19">
+        <v>108954000000</v>
+      </c>
+      <c r="W41" s="19">
+        <v>111744000000</v>
+      </c>
+      <c r="X41" s="19">
+        <v>114614000000</v>
+      </c>
+      <c r="Y41" s="19">
+        <v>117568000000</v>
+      </c>
+      <c r="Z41" s="19">
+        <v>120607000000</v>
+      </c>
+      <c r="AA41" s="19">
+        <v>123735000000</v>
+      </c>
+      <c r="AB41" s="19">
+        <v>126953000000</v>
+      </c>
+      <c r="AC41" s="19">
+        <v>130264000000</v>
+      </c>
+      <c r="AD41" s="19">
+        <v>133672000000</v>
+      </c>
+      <c r="AE41" s="19">
+        <v>137178000000</v>
+      </c>
+      <c r="AF41" s="19">
+        <v>140786000000</v>
+      </c>
+      <c r="AG41" s="19">
+        <v>144499000000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>232</v>
+      </c>
+      <c r="B42" s="19">
+        <v>18940100000</v>
+      </c>
+      <c r="C42" s="19">
+        <v>18940100000</v>
+      </c>
+      <c r="D42" s="19">
+        <v>19304600000</v>
+      </c>
+      <c r="E42" s="19">
+        <v>19673300000</v>
+      </c>
+      <c r="F42" s="19">
+        <v>20046000000</v>
+      </c>
+      <c r="G42" s="19">
+        <v>20422600000</v>
+      </c>
+      <c r="H42" s="19">
+        <v>20802900000</v>
+      </c>
+      <c r="I42" s="19">
+        <v>21187000000</v>
+      </c>
+      <c r="J42" s="19">
+        <v>21574600000</v>
+      </c>
+      <c r="K42" s="19">
+        <v>21970700000</v>
+      </c>
+      <c r="L42" s="19">
+        <v>22375500000</v>
+      </c>
+      <c r="M42" s="19">
+        <v>22789200000</v>
+      </c>
+      <c r="N42" s="19">
+        <v>23212000000</v>
+      </c>
+      <c r="O42" s="19">
+        <v>23644200000</v>
+      </c>
+      <c r="P42" s="19">
+        <v>24085800000</v>
+      </c>
+      <c r="Q42" s="19">
+        <v>24537100000</v>
+      </c>
+      <c r="R42" s="19">
+        <v>24998400000</v>
+      </c>
+      <c r="S42" s="19">
+        <v>25469800000</v>
+      </c>
+      <c r="T42" s="19">
+        <v>25951600000</v>
+      </c>
+      <c r="U42" s="19">
+        <v>26444000000</v>
+      </c>
+      <c r="V42" s="19">
+        <v>26947300000</v>
+      </c>
+      <c r="W42" s="19">
+        <v>27461600000</v>
+      </c>
+      <c r="X42" s="19">
+        <v>27987200000</v>
+      </c>
+      <c r="Y42" s="19">
+        <v>28524400000</v>
+      </c>
+      <c r="Z42" s="19">
+        <v>29073400000</v>
+      </c>
+      <c r="AA42" s="19">
+        <v>29634400000</v>
+      </c>
+      <c r="AB42" s="19">
+        <v>30207900000</v>
+      </c>
+      <c r="AC42" s="19">
+        <v>30793900000</v>
+      </c>
+      <c r="AD42" s="19">
+        <v>31392800000</v>
+      </c>
+      <c r="AE42" s="19">
+        <v>32004900000</v>
+      </c>
+      <c r="AF42" s="19">
+        <v>32630500000</v>
+      </c>
+      <c r="AG42" s="19">
+        <v>33269800000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>233</v>
+      </c>
+      <c r="B43" s="19">
+        <v>2462230000</v>
+      </c>
+      <c r="C43" s="19">
+        <v>2462230000</v>
+      </c>
+      <c r="D43" s="19">
+        <v>2480510000</v>
+      </c>
+      <c r="E43" s="19">
+        <v>2501500000</v>
+      </c>
+      <c r="F43" s="19">
+        <v>2525300000</v>
+      </c>
+      <c r="G43" s="19">
+        <v>2551990000</v>
+      </c>
+      <c r="H43" s="19">
+        <v>2581680000</v>
+      </c>
+      <c r="I43" s="19">
+        <v>2614480000</v>
+      </c>
+      <c r="J43" s="19">
+        <v>2650520000</v>
+      </c>
+      <c r="K43" s="19">
+        <v>2687170000</v>
+      </c>
+      <c r="L43" s="19">
+        <v>2724440000</v>
+      </c>
+      <c r="M43" s="19">
+        <v>2762350000</v>
+      </c>
+      <c r="N43" s="19">
+        <v>2800910000</v>
+      </c>
+      <c r="O43" s="19">
+        <v>2840120000</v>
+      </c>
+      <c r="P43" s="19">
+        <v>2879990000</v>
+      </c>
+      <c r="Q43" s="19">
+        <v>2920550000</v>
+      </c>
+      <c r="R43" s="19">
+        <v>2961790000</v>
+      </c>
+      <c r="S43" s="19">
+        <v>3003730000</v>
+      </c>
+      <c r="T43" s="19">
+        <v>3046390000</v>
+      </c>
+      <c r="U43" s="19">
+        <v>3089770000</v>
+      </c>
+      <c r="V43" s="19">
+        <v>3133890000</v>
+      </c>
+      <c r="W43" s="19">
+        <v>3178760000</v>
+      </c>
+      <c r="X43" s="19">
+        <v>3224400000</v>
+      </c>
+      <c r="Y43" s="19">
+        <v>3270800000</v>
+      </c>
+      <c r="Z43" s="19">
+        <v>3318000000</v>
+      </c>
+      <c r="AA43" s="19">
+        <v>3366000000</v>
+      </c>
+      <c r="AB43" s="19">
+        <v>3414820000</v>
+      </c>
+      <c r="AC43" s="19">
+        <v>3464460000</v>
+      </c>
+      <c r="AD43" s="19">
+        <v>3514950000</v>
+      </c>
+      <c r="AE43" s="19">
+        <v>3566300000</v>
+      </c>
+      <c r="AF43" s="19">
+        <v>3618520000</v>
+      </c>
+      <c r="AG43" s="19">
+        <v>3671630000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B45" s="19">
+        <f>SUM(B2:B43)</f>
+        <v>715985914000</v>
+      </c>
+      <c r="C45" s="19">
+        <f t="shared" ref="C45:AG45" si="0">SUM(C2:C43)</f>
+        <v>715985914000</v>
+      </c>
+      <c r="D45" s="19">
+        <f t="shared" si="0"/>
+        <v>731469330000</v>
+      </c>
+      <c r="E45" s="19">
+        <f t="shared" si="0"/>
+        <v>747006992000</v>
+      </c>
+      <c r="F45" s="19">
+        <f t="shared" si="0"/>
+        <v>762481162000</v>
+      </c>
+      <c r="G45" s="19">
+        <f t="shared" si="0"/>
+        <v>777768261000</v>
+      </c>
+      <c r="H45" s="19">
+        <f t="shared" si="0"/>
+        <v>792747210000</v>
+      </c>
+      <c r="I45" s="19">
+        <f t="shared" si="0"/>
+        <v>807305505000</v>
+      </c>
+      <c r="J45" s="19">
+        <f t="shared" si="0"/>
+        <v>821338517000</v>
+      </c>
+      <c r="K45" s="19">
+        <f t="shared" si="0"/>
+        <v>835703591000</v>
+      </c>
+      <c r="L45" s="19">
+        <f t="shared" si="0"/>
+        <v>850407975000</v>
+      </c>
+      <c r="M45" s="19">
+        <f t="shared" si="0"/>
+        <v>865461274000</v>
+      </c>
+      <c r="N45" s="19">
+        <f t="shared" si="0"/>
+        <v>880871387000</v>
+      </c>
+      <c r="O45" s="19">
+        <f t="shared" si="0"/>
+        <v>896647788000</v>
+      </c>
+      <c r="P45" s="19">
+        <f t="shared" si="0"/>
+        <v>912800702000</v>
+      </c>
+      <c r="Q45" s="19">
+        <f t="shared" si="0"/>
+        <v>929339709000</v>
+      </c>
+      <c r="R45" s="19">
+        <f t="shared" si="0"/>
+        <v>946273835000</v>
+      </c>
+      <c r="S45" s="19">
+        <f t="shared" si="0"/>
+        <v>963614734000</v>
+      </c>
+      <c r="T45" s="19">
+        <f t="shared" si="0"/>
+        <v>981372527000</v>
+      </c>
+      <c r="U45" s="19">
+        <f t="shared" si="0"/>
+        <v>999558368000</v>
+      </c>
+      <c r="V45" s="19">
+        <f t="shared" si="0"/>
+        <v>1018181523000</v>
+      </c>
+      <c r="W45" s="19">
+        <f t="shared" si="0"/>
+        <v>1037257652000</v>
+      </c>
+      <c r="X45" s="19">
+        <f t="shared" si="0"/>
+        <v>1056794340000</v>
+      </c>
+      <c r="Y45" s="19">
+        <f t="shared" si="0"/>
+        <v>1076807055000</v>
+      </c>
+      <c r="Z45" s="19">
+        <f t="shared" si="0"/>
+        <v>1097305113000</v>
+      </c>
+      <c r="AA45" s="19">
+        <f t="shared" si="0"/>
+        <v>1118305133000</v>
+      </c>
+      <c r="AB45" s="19">
+        <f t="shared" si="0"/>
+        <v>1139816640000</v>
+      </c>
+      <c r="AC45" s="19">
+        <f t="shared" si="0"/>
+        <v>1161857074000</v>
+      </c>
+      <c r="AD45" s="19">
+        <f t="shared" si="0"/>
+        <v>1184438352000</v>
+      </c>
+      <c r="AE45" s="19">
+        <f t="shared" si="0"/>
+        <v>1207574458000</v>
+      </c>
+      <c r="AF45" s="19">
+        <f t="shared" si="0"/>
+        <v>1231280134000</v>
+      </c>
+      <c r="AG45" s="19">
+        <f t="shared" si="0"/>
+        <v>1255573464000</v>
       </c>
     </row>
   </sheetData>
